--- a/movpe_CNR/013_example_dataset.xlsx
+++ b/movpe_CNR/013_example_dataset.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="351">
   <si>
     <t xml:space="preserve"># start Header</t>
   </si>
@@ -810,9 +810,6 @@
     <t xml:space="preserve">Who has it?</t>
   </si>
   <si>
-    <t xml:space="preserve">the image file showing the sample  cut (only needed in one line)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Parent Sample ID</t>
   </si>
   <si>
@@ -835,9 +832,6 @@
   </si>
   <si>
     <t xml:space="preserve">Collaborator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample Cut File</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -853,9 +847,6 @@
     <t xml:space="preserve">mazzolini</t>
   </si>
   <si>
-    <t xml:space="preserve">sample_cut013.png</t>
-  </si>
-  <si>
     <t xml:space="preserve">013_B</t>
   </si>
   <si>
@@ -976,16 +967,10 @@
     <t xml:space="preserve">Y value</t>
   </si>
   <si>
-    <t xml:space="preserve">Thickness File</t>
-  </si>
-  <si>
     <t xml:space="preserve">Reflectance</t>
   </si>
   <si>
     <t xml:space="preserve">center xxx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">013-thickness.png</t>
   </si>
   <si>
     <t xml:space="preserve">mid-center</t>
@@ -1385,7 +1370,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF729FCF"/>
-        <bgColor rgb="FFB3A2C7"/>
+        <bgColor rgb="FF999999"/>
       </patternFill>
     </fill>
     <fill>
@@ -1413,7 +1398,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1532,6 +1517,21 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="hair">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="hair">
         <color rgb="FFB2B2B2"/>
@@ -1607,7 +1607,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="271">
+  <cellXfs count="294">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2460,11 +2460,163 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="174" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="174" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="9" fillId="11" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2472,98 +2624,38 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="174" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="174" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2576,19 +2668,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2596,11 +2684,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2608,35 +2696,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="30" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="30" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="30" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="30" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2644,11 +2732,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2656,11 +2744,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2668,19 +2756,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2739,7 +2831,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFE994"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FFFFB66C"/>
       <rgbColor rgb="FFB3A2C7"/>
       <rgbColor rgb="FFFCD5B5"/>
@@ -2750,7 +2842,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FFB2B2B2"/>
+      <rgbColor rgb="FF999999"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -2765,14 +2857,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L19" activeCellId="0" sqref="L19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2781,10 +2873,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="22.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="23.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="22.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.43"/>
@@ -3240,7 +3332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3250,7 +3342,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="50" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="42" width="24.15"/>
@@ -3302,7 +3394,7 @@
       <c r="A3" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="213" t="s">
+      <c r="B3" s="251" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="71" t="s">
@@ -3357,14 +3449,14 @@
       <c r="A5" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="213" t="s">
+      <c r="B5" s="251" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="71"/>
       <c r="D5" s="71"/>
       <c r="E5" s="71"/>
       <c r="F5" s="71" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G5" s="70"/>
       <c r="H5" s="71"/>
@@ -3399,19 +3491,19 @@
       <c r="A7" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="231" t="s">
-        <v>320</v>
+      <c r="B7" s="252" t="s">
+        <v>315</v>
       </c>
       <c r="C7" s="70"/>
       <c r="D7" s="70"/>
       <c r="E7" s="71" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F7" s="71" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G7" s="71"/>
-      <c r="H7" s="215"/>
+      <c r="H7" s="253"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
@@ -3452,100 +3544,100 @@
       <c r="P8" s="28"/>
       <c r="Q8" s="28"/>
     </row>
-    <row r="9" s="236" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="232" t="s">
-        <v>323</v>
-      </c>
-      <c r="B9" s="233" t="s">
-        <v>324</v>
-      </c>
-      <c r="C9" s="234" t="s">
+    <row r="9" s="258" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="254" t="s">
+        <v>318</v>
+      </c>
+      <c r="B9" s="255" t="s">
+        <v>319</v>
+      </c>
+      <c r="C9" s="256" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="234" t="s">
+      <c r="D9" s="256" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="232" t="s">
-        <v>321</v>
-      </c>
-      <c r="F9" s="232" t="s">
-        <v>325</v>
-      </c>
-      <c r="G9" s="232"/>
-      <c r="H9" s="235"/>
-      <c r="I9" s="235"/>
-      <c r="J9" s="235"/>
+      <c r="E9" s="254" t="s">
+        <v>316</v>
+      </c>
+      <c r="F9" s="254" t="s">
+        <v>320</v>
+      </c>
+      <c r="G9" s="254"/>
+      <c r="H9" s="257"/>
+      <c r="I9" s="257"/>
+      <c r="J9" s="257"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="237"/>
-      <c r="C10" s="238"/>
-      <c r="D10" s="238"/>
-      <c r="E10" s="230"/>
-      <c r="F10" s="230"/>
-      <c r="G10" s="230"/>
-      <c r="H10" s="230"/>
-      <c r="I10" s="230"/>
-      <c r="J10" s="230"/>
+      <c r="B10" s="259"/>
+      <c r="C10" s="260"/>
+      <c r="D10" s="260"/>
+      <c r="E10" s="261"/>
+      <c r="F10" s="261"/>
+      <c r="G10" s="261"/>
+      <c r="H10" s="261"/>
+      <c r="I10" s="261"/>
+      <c r="J10" s="261"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="230"/>
-      <c r="B11" s="239"/>
-      <c r="C11" s="230"/>
-      <c r="D11" s="230"/>
-      <c r="E11" s="230"/>
-      <c r="F11" s="230"/>
-      <c r="G11" s="230"/>
-      <c r="H11" s="230"/>
-      <c r="I11" s="230"/>
-      <c r="J11" s="230"/>
+      <c r="A11" s="261"/>
+      <c r="B11" s="262"/>
+      <c r="C11" s="261"/>
+      <c r="D11" s="261"/>
+      <c r="E11" s="261"/>
+      <c r="F11" s="261"/>
+      <c r="G11" s="261"/>
+      <c r="H11" s="261"/>
+      <c r="I11" s="261"/>
+      <c r="J11" s="261"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="230"/>
-      <c r="B12" s="239"/>
-      <c r="C12" s="230"/>
-      <c r="D12" s="230"/>
-      <c r="E12" s="230"/>
-      <c r="F12" s="230"/>
-      <c r="G12" s="230"/>
-      <c r="H12" s="230"/>
-      <c r="I12" s="230"/>
-      <c r="J12" s="230"/>
+      <c r="A12" s="261"/>
+      <c r="B12" s="262"/>
+      <c r="C12" s="261"/>
+      <c r="D12" s="261"/>
+      <c r="E12" s="261"/>
+      <c r="F12" s="261"/>
+      <c r="G12" s="261"/>
+      <c r="H12" s="261"/>
+      <c r="I12" s="261"/>
+      <c r="J12" s="261"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="230"/>
-      <c r="B13" s="239"/>
-      <c r="C13" s="230"/>
-      <c r="D13" s="230"/>
-      <c r="E13" s="230"/>
-      <c r="F13" s="230"/>
-      <c r="G13" s="230"/>
-      <c r="H13" s="230"/>
-      <c r="I13" s="230"/>
-      <c r="J13" s="230"/>
+      <c r="A13" s="261"/>
+      <c r="B13" s="262"/>
+      <c r="C13" s="261"/>
+      <c r="D13" s="261"/>
+      <c r="E13" s="261"/>
+      <c r="F13" s="261"/>
+      <c r="G13" s="261"/>
+      <c r="H13" s="261"/>
+      <c r="I13" s="261"/>
+      <c r="J13" s="261"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="230"/>
-      <c r="B14" s="239"/>
-      <c r="C14" s="230"/>
-      <c r="D14" s="230"/>
-      <c r="E14" s="230"/>
-      <c r="F14" s="230"/>
-      <c r="G14" s="230"/>
-      <c r="H14" s="230"/>
-      <c r="I14" s="230"/>
-      <c r="J14" s="230"/>
+      <c r="A14" s="261"/>
+      <c r="B14" s="262"/>
+      <c r="C14" s="261"/>
+      <c r="D14" s="261"/>
+      <c r="E14" s="261"/>
+      <c r="F14" s="261"/>
+      <c r="G14" s="261"/>
+      <c r="H14" s="261"/>
+      <c r="I14" s="261"/>
+      <c r="J14" s="261"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="230"/>
-      <c r="B15" s="239"/>
-      <c r="C15" s="230"/>
-      <c r="D15" s="230"/>
-      <c r="E15" s="230"/>
-      <c r="F15" s="230"/>
-      <c r="G15" s="230"/>
-      <c r="H15" s="230"/>
-      <c r="I15" s="230"/>
-      <c r="J15" s="230"/>
+      <c r="A15" s="261"/>
+      <c r="B15" s="262"/>
+      <c r="C15" s="261"/>
+      <c r="D15" s="261"/>
+      <c r="E15" s="261"/>
+      <c r="F15" s="261"/>
+      <c r="G15" s="261"/>
+      <c r="H15" s="261"/>
+      <c r="I15" s="261"/>
+      <c r="J15" s="261"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3559,7 +3651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3569,14 +3661,14 @@
       <selection pane="topLeft" activeCell="N15" activeCellId="0" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="50" width="13.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="50" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="50" width="15.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="50" width="17.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="50" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="240" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="263" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="50" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="50" width="14.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="50" width="13.43"/>
@@ -3585,1052 +3677,1052 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="241" t="s">
+      <c r="A1" s="264" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="242" t="s">
-        <v>268</v>
-      </c>
-      <c r="C1" s="242" t="s">
-        <v>268</v>
-      </c>
-      <c r="D1" s="242" t="s">
-        <v>268</v>
-      </c>
-      <c r="E1" s="242" t="s">
-        <v>268</v>
-      </c>
-      <c r="F1" s="242" t="s">
-        <v>268</v>
-      </c>
-      <c r="G1" s="243" t="s">
-        <v>268</v>
-      </c>
-      <c r="H1" s="242" t="s">
-        <v>268</v>
-      </c>
-      <c r="I1" s="242" t="s">
-        <v>268</v>
-      </c>
-      <c r="J1" s="242" t="s">
-        <v>268</v>
-      </c>
-      <c r="K1" s="242" t="s">
-        <v>268</v>
-      </c>
-      <c r="L1" s="242" t="s">
-        <v>268</v>
-      </c>
-      <c r="M1" s="242" t="s">
-        <v>268</v>
-      </c>
-      <c r="N1" s="242" t="s">
-        <v>268</v>
-      </c>
-      <c r="O1" s="242" t="s">
-        <v>268</v>
-      </c>
-      <c r="P1" s="242" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q1" s="244" t="s">
-        <v>268</v>
-      </c>
-      <c r="R1" s="244" t="s">
-        <v>268</v>
-      </c>
-      <c r="S1" s="244" t="s">
-        <v>268</v>
-      </c>
-      <c r="T1" s="244" t="s">
-        <v>268</v>
-      </c>
-      <c r="U1" s="244" t="s">
-        <v>268</v>
-      </c>
-      <c r="V1" s="244" t="s">
-        <v>268</v>
-      </c>
-      <c r="W1" s="244" t="s">
-        <v>268</v>
-      </c>
-      <c r="X1" s="244" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y1" s="244" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z1" s="244" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA1" s="244" t="s">
-        <v>268</v>
-      </c>
-      <c r="AB1" s="244" t="s">
-        <v>268</v>
-      </c>
-      <c r="AC1" s="244" t="s">
-        <v>268</v>
-      </c>
-      <c r="AD1" s="244" t="s">
-        <v>268</v>
-      </c>
-      <c r="AE1" s="244" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF1" s="244" t="s">
-        <v>268</v>
-      </c>
-      <c r="AG1" s="244" t="s">
-        <v>268</v>
+      <c r="B1" s="265" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" s="265" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1" s="265" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1" s="265" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1" s="265" t="s">
+        <v>266</v>
+      </c>
+      <c r="G1" s="266" t="s">
+        <v>266</v>
+      </c>
+      <c r="H1" s="265" t="s">
+        <v>266</v>
+      </c>
+      <c r="I1" s="265" t="s">
+        <v>266</v>
+      </c>
+      <c r="J1" s="265" t="s">
+        <v>266</v>
+      </c>
+      <c r="K1" s="265" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1" s="265" t="s">
+        <v>266</v>
+      </c>
+      <c r="M1" s="265" t="s">
+        <v>266</v>
+      </c>
+      <c r="N1" s="265" t="s">
+        <v>266</v>
+      </c>
+      <c r="O1" s="265" t="s">
+        <v>266</v>
+      </c>
+      <c r="P1" s="265" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q1" s="267" t="s">
+        <v>266</v>
+      </c>
+      <c r="R1" s="267" t="s">
+        <v>266</v>
+      </c>
+      <c r="S1" s="267" t="s">
+        <v>266</v>
+      </c>
+      <c r="T1" s="267" t="s">
+        <v>266</v>
+      </c>
+      <c r="U1" s="267" t="s">
+        <v>266</v>
+      </c>
+      <c r="V1" s="267" t="s">
+        <v>266</v>
+      </c>
+      <c r="W1" s="267" t="s">
+        <v>266</v>
+      </c>
+      <c r="X1" s="267" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y1" s="267" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z1" s="267" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA1" s="267" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB1" s="267" t="s">
+        <v>266</v>
+      </c>
+      <c r="AC1" s="267" t="s">
+        <v>266</v>
+      </c>
+      <c r="AD1" s="267" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE1" s="267" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF1" s="267" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG1" s="267" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="245" t="s">
+      <c r="A2" s="268" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="C2" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="D2" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="E2" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="F2" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="G2" s="247" t="s">
-        <v>268</v>
-      </c>
-      <c r="H2" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="I2" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="J2" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="K2" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="L2" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="M2" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="N2" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="O2" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="P2" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q2" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="R2" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="S2" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="T2" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="U2" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="V2" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="W2" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="X2" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y2" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z2" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA2" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="AB2" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="AC2" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="AD2" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="AE2" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF2" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="AG2" s="246" t="s">
-        <v>268</v>
+      <c r="B2" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="E2" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="F2" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="G2" s="270" t="s">
+        <v>266</v>
+      </c>
+      <c r="H2" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="I2" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="J2" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="K2" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="L2" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="M2" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="N2" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="O2" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="P2" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q2" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="R2" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="S2" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="T2" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="U2" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="V2" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="W2" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="X2" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y2" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z2" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA2" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB2" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="AC2" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="AD2" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE2" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF2" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG2" s="269" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="248" t="s">
+      <c r="A3" s="271" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="249" t="s">
+      <c r="B3" s="272" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="249" t="s">
+      <c r="C3" s="272" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="249" t="s">
+      <c r="D3" s="272" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="249" t="s">
+      <c r="E3" s="272" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="249" t="s">
+      <c r="F3" s="272" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="250" t="s">
+      <c r="G3" s="273" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="249" t="s">
+      <c r="H3" s="272" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="249" t="s">
+      <c r="I3" s="272" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="249" t="s">
+      <c r="J3" s="272" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="249" t="s">
+      <c r="K3" s="272" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="249" t="s">
+      <c r="L3" s="272" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="249" t="s">
+      <c r="M3" s="272" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="251" t="s">
+      <c r="N3" s="274" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="P3" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q3" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="R3" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="S3" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="T3" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="U3" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="V3" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="W3" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="X3" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y3" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z3" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA3" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="AB3" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="AC3" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="AD3" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="AE3" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF3" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="AG3" s="252" t="s">
-        <v>268</v>
+      <c r="O3" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="P3" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q3" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="R3" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="S3" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="T3" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="U3" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="V3" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="W3" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="X3" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y3" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z3" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA3" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB3" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="AC3" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="AD3" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE3" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF3" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG3" s="275" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="245" t="s">
+      <c r="A4" s="268" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="C4" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="D4" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="E4" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="F4" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="G4" s="247" t="s">
-        <v>268</v>
-      </c>
-      <c r="H4" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="I4" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="J4" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="K4" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="L4" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="M4" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="N4" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="O4" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="P4" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q4" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="R4" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="S4" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="T4" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="U4" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="V4" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="W4" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="X4" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y4" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z4" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA4" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="AB4" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="AC4" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="AD4" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="AE4" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF4" s="246" t="s">
-        <v>268</v>
-      </c>
-      <c r="AG4" s="246" t="s">
-        <v>268</v>
+      <c r="B4" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="C4" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="D4" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="E4" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="F4" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="G4" s="270" t="s">
+        <v>266</v>
+      </c>
+      <c r="H4" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="I4" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="J4" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="K4" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="L4" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="M4" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="N4" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="O4" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="P4" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q4" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="R4" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="S4" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="T4" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="U4" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="V4" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="W4" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="X4" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y4" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z4" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA4" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB4" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="AC4" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="AD4" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE4" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF4" s="269" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG4" s="269" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="248" t="s">
+      <c r="A5" s="271" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="249" t="s">
+      <c r="B5" s="272" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="249" t="s">
+      <c r="C5" s="272" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="249" t="s">
+      <c r="D5" s="272" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="249" t="s">
+      <c r="E5" s="272" t="s">
+        <v>321</v>
+      </c>
+      <c r="F5" s="272" t="s">
+        <v>322</v>
+      </c>
+      <c r="G5" s="273" t="s">
+        <v>292</v>
+      </c>
+      <c r="H5" s="272" t="s">
+        <v>323</v>
+      </c>
+      <c r="I5" s="272" t="s">
+        <v>324</v>
+      </c>
+      <c r="J5" s="272" t="s">
+        <v>325</v>
+      </c>
+      <c r="K5" s="272" t="s">
+        <v>321</v>
+      </c>
+      <c r="L5" s="272" t="s">
         <v>326</v>
       </c>
-      <c r="F5" s="249" t="s">
+      <c r="M5" s="272" t="s">
+        <v>266</v>
+      </c>
+      <c r="N5" s="272" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="P5" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q5" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="R5" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="S5" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="T5" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="U5" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="V5" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="W5" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="X5" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y5" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z5" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA5" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB5" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="AC5" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="AD5" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE5" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF5" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG5" s="275" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="276" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="277" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" s="277" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" s="277" t="s">
+        <v>266</v>
+      </c>
+      <c r="E6" s="277" t="s">
+        <v>266</v>
+      </c>
+      <c r="F6" s="277" t="s">
+        <v>266</v>
+      </c>
+      <c r="G6" s="278" t="s">
+        <v>266</v>
+      </c>
+      <c r="H6" s="277" t="s">
+        <v>266</v>
+      </c>
+      <c r="I6" s="277" t="s">
+        <v>266</v>
+      </c>
+      <c r="J6" s="277" t="s">
+        <v>266</v>
+      </c>
+      <c r="K6" s="277" t="s">
+        <v>266</v>
+      </c>
+      <c r="L6" s="277" t="s">
+        <v>266</v>
+      </c>
+      <c r="M6" s="277" t="s">
+        <v>266</v>
+      </c>
+      <c r="N6" s="277" t="s">
+        <v>266</v>
+      </c>
+      <c r="O6" s="277" t="s">
+        <v>266</v>
+      </c>
+      <c r="P6" s="277" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q6" s="279" t="s">
+        <v>266</v>
+      </c>
+      <c r="R6" s="279" t="s">
+        <v>266</v>
+      </c>
+      <c r="S6" s="279" t="s">
+        <v>266</v>
+      </c>
+      <c r="T6" s="279" t="s">
+        <v>266</v>
+      </c>
+      <c r="U6" s="279" t="s">
+        <v>266</v>
+      </c>
+      <c r="V6" s="279" t="s">
+        <v>266</v>
+      </c>
+      <c r="W6" s="279" t="s">
+        <v>266</v>
+      </c>
+      <c r="X6" s="279" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y6" s="279" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z6" s="279" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA6" s="279" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB6" s="279" t="s">
+        <v>266</v>
+      </c>
+      <c r="AC6" s="279" t="s">
+        <v>266</v>
+      </c>
+      <c r="AD6" s="279" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE6" s="279" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF6" s="279" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG6" s="279" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="280" t="s">
+        <v>294</v>
+      </c>
+      <c r="B7" s="281" t="s">
+        <v>275</v>
+      </c>
+      <c r="C7" s="281" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7" s="281" t="s">
         <v>327</v>
       </c>
-      <c r="G5" s="250" t="s">
-        <v>295</v>
-      </c>
-      <c r="H5" s="249" t="s">
+      <c r="E7" s="281" t="s">
         <v>328</v>
       </c>
-      <c r="I5" s="249" t="s">
+      <c r="F7" s="281" t="s">
         <v>329</v>
       </c>
-      <c r="J5" s="249" t="s">
+      <c r="G7" s="282" t="s">
         <v>330</v>
       </c>
-      <c r="K5" s="249" t="s">
-        <v>326</v>
-      </c>
-      <c r="L5" s="249" t="s">
+      <c r="H7" s="281" t="s">
         <v>331</v>
       </c>
-      <c r="M5" s="249" t="s">
-        <v>268</v>
-      </c>
-      <c r="N5" s="249" t="s">
-        <v>9</v>
-      </c>
-      <c r="O5" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="P5" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q5" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="R5" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="S5" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="T5" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="U5" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="V5" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="W5" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="X5" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y5" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z5" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA5" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="AB5" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="AC5" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="AD5" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="AE5" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF5" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="AG5" s="252" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="253" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="254" t="s">
-        <v>268</v>
-      </c>
-      <c r="C6" s="254" t="s">
-        <v>268</v>
-      </c>
-      <c r="D6" s="254" t="s">
-        <v>268</v>
-      </c>
-      <c r="E6" s="254" t="s">
-        <v>268</v>
-      </c>
-      <c r="F6" s="254" t="s">
-        <v>268</v>
-      </c>
-      <c r="G6" s="255" t="s">
-        <v>268</v>
-      </c>
-      <c r="H6" s="254" t="s">
-        <v>268</v>
-      </c>
-      <c r="I6" s="254" t="s">
-        <v>268</v>
-      </c>
-      <c r="J6" s="254" t="s">
-        <v>268</v>
-      </c>
-      <c r="K6" s="254" t="s">
-        <v>268</v>
-      </c>
-      <c r="L6" s="254" t="s">
-        <v>268</v>
-      </c>
-      <c r="M6" s="254" t="s">
-        <v>268</v>
-      </c>
-      <c r="N6" s="254" t="s">
-        <v>268</v>
-      </c>
-      <c r="O6" s="254" t="s">
-        <v>268</v>
-      </c>
-      <c r="P6" s="254" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q6" s="256" t="s">
-        <v>268</v>
-      </c>
-      <c r="R6" s="256" t="s">
-        <v>268</v>
-      </c>
-      <c r="S6" s="256" t="s">
-        <v>268</v>
-      </c>
-      <c r="T6" s="256" t="s">
-        <v>268</v>
-      </c>
-      <c r="U6" s="256" t="s">
-        <v>268</v>
-      </c>
-      <c r="V6" s="256" t="s">
-        <v>268</v>
-      </c>
-      <c r="W6" s="256" t="s">
-        <v>268</v>
-      </c>
-      <c r="X6" s="256" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y6" s="256" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z6" s="256" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA6" s="256" t="s">
-        <v>268</v>
-      </c>
-      <c r="AB6" s="256" t="s">
-        <v>268</v>
-      </c>
-      <c r="AC6" s="256" t="s">
-        <v>268</v>
-      </c>
-      <c r="AD6" s="256" t="s">
-        <v>268</v>
-      </c>
-      <c r="AE6" s="256" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF6" s="256" t="s">
-        <v>268</v>
-      </c>
-      <c r="AG6" s="256" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="257" t="s">
-        <v>297</v>
-      </c>
-      <c r="B7" s="258" t="s">
-        <v>278</v>
-      </c>
-      <c r="C7" s="258" t="s">
-        <v>268</v>
-      </c>
-      <c r="D7" s="258" t="s">
+      <c r="I7" s="281" t="s">
         <v>332</v>
       </c>
-      <c r="E7" s="258" t="s">
+      <c r="J7" s="281" t="s">
         <v>333</v>
       </c>
-      <c r="F7" s="258" t="s">
+      <c r="K7" s="281" t="s">
         <v>334</v>
       </c>
-      <c r="G7" s="259" t="s">
+      <c r="L7" s="281" t="s">
         <v>335</v>
       </c>
-      <c r="H7" s="258" t="s">
+      <c r="M7" s="281" t="s">
         <v>336</v>
       </c>
-      <c r="I7" s="258" t="s">
+      <c r="N7" s="275" t="s">
+        <v>138</v>
+      </c>
+      <c r="O7" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="P7" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q7" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="R7" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="S7" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="T7" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="U7" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="V7" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="W7" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="X7" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y7" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z7" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA7" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB7" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="AC7" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="AD7" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE7" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF7" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG7" s="275" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="283" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="284" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="284" t="s">
+        <v>266</v>
+      </c>
+      <c r="D8" s="284" t="s">
+        <v>266</v>
+      </c>
+      <c r="E8" s="284" t="s">
+        <v>266</v>
+      </c>
+      <c r="F8" s="284" t="s">
+        <v>266</v>
+      </c>
+      <c r="G8" s="285" t="s">
+        <v>266</v>
+      </c>
+      <c r="H8" s="284" t="s">
+        <v>266</v>
+      </c>
+      <c r="I8" s="284" t="s">
+        <v>266</v>
+      </c>
+      <c r="J8" s="284" t="s">
+        <v>266</v>
+      </c>
+      <c r="K8" s="284" t="s">
+        <v>266</v>
+      </c>
+      <c r="L8" s="284" t="s">
+        <v>266</v>
+      </c>
+      <c r="M8" s="284" t="s">
+        <v>266</v>
+      </c>
+      <c r="N8" s="284" t="s">
+        <v>266</v>
+      </c>
+      <c r="O8" s="284" t="s">
+        <v>266</v>
+      </c>
+      <c r="P8" s="284" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q8" s="284" t="s">
+        <v>266</v>
+      </c>
+      <c r="R8" s="284" t="s">
+        <v>266</v>
+      </c>
+      <c r="S8" s="284" t="s">
+        <v>266</v>
+      </c>
+      <c r="T8" s="284" t="s">
+        <v>266</v>
+      </c>
+      <c r="U8" s="284" t="s">
+        <v>266</v>
+      </c>
+      <c r="V8" s="284" t="s">
+        <v>266</v>
+      </c>
+      <c r="W8" s="284" t="s">
+        <v>266</v>
+      </c>
+      <c r="X8" s="284" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y8" s="284" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z8" s="284" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA8" s="284" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB8" s="284" t="s">
+        <v>266</v>
+      </c>
+      <c r="AC8" s="284" t="s">
+        <v>266</v>
+      </c>
+      <c r="AD8" s="284" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE8" s="284" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF8" s="284" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG8" s="284" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="286" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="287" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="287" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="287" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="287" t="s">
         <v>337</v>
       </c>
-      <c r="J7" s="258" t="s">
+      <c r="F9" s="287" t="s">
         <v>338</v>
       </c>
-      <c r="K7" s="258" t="s">
+      <c r="G9" s="288" t="s">
+        <v>306</v>
+      </c>
+      <c r="H9" s="287" t="s">
+        <v>331</v>
+      </c>
+      <c r="I9" s="287" t="s">
         <v>339</v>
       </c>
-      <c r="L7" s="258" t="s">
+      <c r="J9" s="287" t="s">
         <v>340</v>
       </c>
-      <c r="M7" s="258" t="s">
+      <c r="K9" s="287" t="s">
         <v>341</v>
       </c>
-      <c r="N7" s="252" t="s">
-        <v>138</v>
-      </c>
-      <c r="O7" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="P7" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q7" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="R7" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="S7" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="T7" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="U7" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="V7" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="W7" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="X7" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y7" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z7" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA7" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="AB7" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="AC7" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="AD7" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="AE7" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF7" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="AG7" s="252" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="260" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="261" t="s">
-        <v>268</v>
-      </c>
-      <c r="C8" s="261" t="s">
-        <v>268</v>
-      </c>
-      <c r="D8" s="261" t="s">
-        <v>268</v>
-      </c>
-      <c r="E8" s="261" t="s">
-        <v>268</v>
-      </c>
-      <c r="F8" s="261" t="s">
-        <v>268</v>
-      </c>
-      <c r="G8" s="262" t="s">
-        <v>268</v>
-      </c>
-      <c r="H8" s="261" t="s">
-        <v>268</v>
-      </c>
-      <c r="I8" s="261" t="s">
-        <v>268</v>
-      </c>
-      <c r="J8" s="261" t="s">
-        <v>268</v>
-      </c>
-      <c r="K8" s="261" t="s">
-        <v>268</v>
-      </c>
-      <c r="L8" s="261" t="s">
-        <v>268</v>
-      </c>
-      <c r="M8" s="261" t="s">
-        <v>268</v>
-      </c>
-      <c r="N8" s="261" t="s">
-        <v>268</v>
-      </c>
-      <c r="O8" s="261" t="s">
-        <v>268</v>
-      </c>
-      <c r="P8" s="261" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q8" s="261" t="s">
-        <v>268</v>
-      </c>
-      <c r="R8" s="261" t="s">
-        <v>268</v>
-      </c>
-      <c r="S8" s="261" t="s">
-        <v>268</v>
-      </c>
-      <c r="T8" s="261" t="s">
-        <v>268</v>
-      </c>
-      <c r="U8" s="261" t="s">
-        <v>268</v>
-      </c>
-      <c r="V8" s="261" t="s">
-        <v>268</v>
-      </c>
-      <c r="W8" s="261" t="s">
-        <v>268</v>
-      </c>
-      <c r="X8" s="261" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y8" s="261" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z8" s="261" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA8" s="261" t="s">
-        <v>268</v>
-      </c>
-      <c r="AB8" s="261" t="s">
-        <v>268</v>
-      </c>
-      <c r="AC8" s="261" t="s">
-        <v>268</v>
-      </c>
-      <c r="AD8" s="261" t="s">
-        <v>268</v>
-      </c>
-      <c r="AE8" s="261" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF8" s="261" t="s">
-        <v>268</v>
-      </c>
-      <c r="AG8" s="261" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="263" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="264" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="264" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="264" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="264" t="s">
+      <c r="L9" s="287" t="s">
         <v>342</v>
       </c>
-      <c r="F9" s="264" t="s">
+      <c r="M9" s="287" t="s">
         <v>343</v>
       </c>
-      <c r="G9" s="265" t="s">
-        <v>309</v>
-      </c>
-      <c r="H9" s="264" t="s">
-        <v>336</v>
-      </c>
-      <c r="I9" s="264" t="s">
+      <c r="N9" s="289" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" s="272" t="s">
+        <v>266</v>
+      </c>
+      <c r="P9" s="272" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q9" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="R9" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="S9" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="T9" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="U9" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="V9" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="W9" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="X9" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y9" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z9" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA9" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB9" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="AC9" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="AD9" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE9" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF9" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG9" s="275" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="280"/>
+      <c r="B10" s="290" t="s">
+        <v>266</v>
+      </c>
+      <c r="C10" s="281" t="s">
         <v>344</v>
       </c>
-      <c r="J9" s="264" t="s">
+      <c r="D10" s="281" t="s">
         <v>345</v>
       </c>
-      <c r="K9" s="264" t="s">
+      <c r="E10" s="281" t="s">
+        <v>266</v>
+      </c>
+      <c r="F10" s="281" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" s="282" t="s">
+        <v>266</v>
+      </c>
+      <c r="H10" s="291"/>
+      <c r="I10" s="281" t="s">
+        <v>266</v>
+      </c>
+      <c r="J10" s="281" t="s">
+        <v>266</v>
+      </c>
+      <c r="K10" s="281" t="s">
+        <v>266</v>
+      </c>
+      <c r="L10" s="281" t="s">
+        <v>266</v>
+      </c>
+      <c r="M10" s="281" t="s">
+        <v>266</v>
+      </c>
+      <c r="N10" s="272" t="s">
+        <v>266</v>
+      </c>
+      <c r="O10" s="272" t="s">
+        <v>266</v>
+      </c>
+      <c r="P10" s="272" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="280" t="s">
+        <v>266</v>
+      </c>
+      <c r="B11" s="290" t="s">
+        <v>266</v>
+      </c>
+      <c r="C11" s="281" t="s">
+        <v>344</v>
+      </c>
+      <c r="D11" s="281" t="s">
         <v>346</v>
       </c>
-      <c r="L9" s="264" t="s">
+      <c r="E11" s="281" t="s">
+        <v>266</v>
+      </c>
+      <c r="F11" s="281" t="s">
+        <v>266</v>
+      </c>
+      <c r="G11" s="282" t="s">
+        <v>266</v>
+      </c>
+      <c r="H11" s="291"/>
+      <c r="I11" s="281" t="s">
+        <v>266</v>
+      </c>
+      <c r="J11" s="281" t="s">
+        <v>266</v>
+      </c>
+      <c r="K11" s="281" t="s">
+        <v>266</v>
+      </c>
+      <c r="L11" s="292"/>
+      <c r="M11" s="292"/>
+    </row>
+    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="280" t="s">
+        <v>267</v>
+      </c>
+      <c r="B12" s="293" t="n">
+        <v>45042</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>344</v>
+      </c>
+      <c r="D12" s="50" t="s">
         <v>347</v>
       </c>
-      <c r="M9" s="264" t="s">
+      <c r="G12" s="263" t="n">
+        <v>760</v>
+      </c>
+      <c r="H12" s="291" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="N12" s="50" t="s">
         <v>348</v>
       </c>
-      <c r="N9" s="266" t="s">
-        <v>35</v>
-      </c>
-      <c r="O9" s="249" t="s">
-        <v>268</v>
-      </c>
-      <c r="P9" s="249" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q9" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="R9" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="S9" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="T9" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="U9" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="V9" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="W9" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="X9" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y9" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z9" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA9" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="AB9" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="AC9" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="AD9" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="AE9" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF9" s="252" t="s">
-        <v>268</v>
-      </c>
-      <c r="AG9" s="252" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="257"/>
-      <c r="B10" s="267" t="s">
-        <v>268</v>
-      </c>
-      <c r="C10" s="258" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="280" t="s">
+        <v>267</v>
+      </c>
+      <c r="B13" s="293" t="n">
+        <v>45042</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>344</v>
+      </c>
+      <c r="D13" s="50" t="s">
         <v>349</v>
       </c>
-      <c r="D10" s="258" t="s">
+      <c r="G13" s="263" t="n">
+        <v>760</v>
+      </c>
+      <c r="H13" s="291" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="N13" s="50" t="s">
         <v>350</v>
       </c>
-      <c r="E10" s="258" t="s">
-        <v>268</v>
-      </c>
-      <c r="F10" s="258" t="s">
-        <v>268</v>
-      </c>
-      <c r="G10" s="259" t="s">
-        <v>268</v>
-      </c>
-      <c r="H10" s="268"/>
-      <c r="I10" s="258" t="s">
-        <v>268</v>
-      </c>
-      <c r="J10" s="258" t="s">
-        <v>268</v>
-      </c>
-      <c r="K10" s="258" t="s">
-        <v>268</v>
-      </c>
-      <c r="L10" s="258" t="s">
-        <v>268</v>
-      </c>
-      <c r="M10" s="258" t="s">
-        <v>268</v>
-      </c>
-      <c r="N10" s="249" t="s">
-        <v>268</v>
-      </c>
-      <c r="O10" s="249" t="s">
-        <v>268</v>
-      </c>
-      <c r="P10" s="249" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="257" t="s">
-        <v>268</v>
-      </c>
-      <c r="B11" s="267" t="s">
-        <v>268</v>
-      </c>
-      <c r="C11" s="258" t="s">
-        <v>349</v>
-      </c>
-      <c r="D11" s="258" t="s">
-        <v>351</v>
-      </c>
-      <c r="E11" s="258" t="s">
-        <v>268</v>
-      </c>
-      <c r="F11" s="258" t="s">
-        <v>268</v>
-      </c>
-      <c r="G11" s="259" t="s">
-        <v>268</v>
-      </c>
-      <c r="H11" s="268"/>
-      <c r="I11" s="258" t="s">
-        <v>268</v>
-      </c>
-      <c r="J11" s="258" t="s">
-        <v>268</v>
-      </c>
-      <c r="K11" s="258" t="s">
-        <v>268</v>
-      </c>
-      <c r="L11" s="269"/>
-      <c r="M11" s="269"/>
-    </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="257" t="s">
-        <v>269</v>
-      </c>
-      <c r="B12" s="270" t="n">
-        <v>45042</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>349</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>352</v>
-      </c>
-      <c r="G12" s="240" t="n">
-        <v>760</v>
-      </c>
-      <c r="H12" s="268" t="n">
-        <v>1400000</v>
-      </c>
-      <c r="N12" s="50" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="257" t="s">
-        <v>269</v>
-      </c>
-      <c r="B13" s="270" t="n">
-        <v>45042</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>349</v>
-      </c>
-      <c r="D13" s="50" t="s">
-        <v>354</v>
-      </c>
-      <c r="G13" s="240" t="n">
-        <v>760</v>
-      </c>
-      <c r="H13" s="268" t="n">
-        <v>1800000</v>
-      </c>
-      <c r="N13" s="50" t="s">
-        <v>355</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H14" s="269"/>
+      <c r="H14" s="292"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H15" s="269"/>
+      <c r="H15" s="292"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H16" s="269"/>
+      <c r="H16" s="292"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H17" s="269"/>
+      <c r="H17" s="292"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4644,7 +4736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4656,7 +4748,7 @@
       <selection pane="bottomLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.01953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.0390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="50" width="32.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="50" width="24.8"/>
@@ -5130,17 +5222,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMQ46"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="54" width="14.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="54" width="13.86"/>
@@ -5149,7 +5241,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="54" width="14.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="54" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="54" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="54" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="54" width="17.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="54" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="54" width="10.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="54" width="13.43"/>
@@ -5161,7 +5253,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="54" width="9.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="54" width="10.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="3" width="6.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1028" min="22" style="54" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="22" style="54" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5188,9 +5280,6 @@
       <c r="U1" s="6"/>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
-      <c r="AMO1" s="0"/>
-      <c r="AMP1" s="0"/>
-      <c r="AMQ1" s="0"/>
     </row>
     <row r="2" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
@@ -5216,9 +5305,6 @@
       <c r="U2" s="10"/>
       <c r="V2" s="8"/>
       <c r="W2" s="8"/>
-      <c r="AMO2" s="0"/>
-      <c r="AMP2" s="0"/>
-      <c r="AMQ2" s="0"/>
     </row>
     <row r="3" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
@@ -5286,9 +5372,6 @@
       </c>
       <c r="V3" s="16"/>
       <c r="W3" s="16"/>
-      <c r="AMO3" s="0"/>
-      <c r="AMP3" s="0"/>
-      <c r="AMQ3" s="0"/>
     </row>
     <row r="4" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
@@ -5315,9 +5398,6 @@
       <c r="U4" s="17"/>
       <c r="V4" s="19"/>
       <c r="W4" s="19"/>
-      <c r="AMO4" s="0"/>
-      <c r="AMP4" s="0"/>
-      <c r="AMQ4" s="0"/>
     </row>
     <row r="5" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
@@ -5385,9 +5465,6 @@
       </c>
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
-      <c r="AMO5" s="0"/>
-      <c r="AMP5" s="0"/>
-      <c r="AMQ5" s="0"/>
     </row>
     <row r="6" s="24" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="s">
@@ -5413,9 +5490,6 @@
       <c r="U6" s="10"/>
       <c r="V6" s="22"/>
       <c r="W6" s="22"/>
-      <c r="AMO6" s="0"/>
-      <c r="AMP6" s="0"/>
-      <c r="AMQ6" s="0"/>
     </row>
     <row r="7" s="26" customFormat="true" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
@@ -5479,9 +5553,6 @@
       <c r="U7" s="25"/>
       <c r="V7" s="27"/>
       <c r="W7" s="27"/>
-      <c r="AMO7" s="0"/>
-      <c r="AMP7" s="0"/>
-      <c r="AMQ7" s="0"/>
     </row>
     <row r="8" s="30" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="28" t="s">
@@ -5507,9 +5578,6 @@
       <c r="U8" s="6"/>
       <c r="V8" s="28"/>
       <c r="W8" s="28"/>
-      <c r="AMO8" s="0"/>
-      <c r="AMP8" s="0"/>
-      <c r="AMQ8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="62" t="s">
@@ -5621,7 +5689,7 @@
       </c>
       <c r="P10" s="53"/>
       <c r="Q10" s="53"/>
-      <c r="R10" s="54" t="b">
+      <c r="R10" s="66" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -5762,7 +5830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -5772,7 +5840,7 @@
       <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="69" width="22.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="50" width="14.69"/>
@@ -6187,7 +6255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -6197,7 +6265,7 @@
       <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.01953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.0390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="50" width="15.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="50" width="20.3"/>
@@ -6817,7 +6885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -9095,14 +9163,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AMJ19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9183,9 +9251,7 @@
       <c r="H3" s="180" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="182" t="s">
-        <v>4</v>
-      </c>
+      <c r="I3" s="182"/>
       <c r="J3" s="182"/>
       <c r="K3" s="183"/>
       <c r="L3" s="183"/>
@@ -9252,9 +9318,7 @@
       <c r="H5" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="182" t="s">
-        <v>9</v>
-      </c>
+      <c r="I5" s="182"/>
       <c r="J5" s="182"/>
       <c r="K5" s="183"/>
       <c r="L5" s="183"/>
@@ -9308,9 +9372,7 @@
       <c r="H7" s="183" t="s">
         <v>257</v>
       </c>
-      <c r="I7" s="183" t="s">
-        <v>258</v>
-      </c>
+      <c r="I7" s="183"/>
       <c r="J7" s="183"/>
       <c r="K7" s="183"/>
       <c r="L7" s="183"/>
@@ -9352,3078 +9414,3075 @@
       <c r="Q8" s="174"/>
       <c r="R8" s="174"/>
     </row>
-    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" s="193" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="190" t="s">
+        <v>258</v>
+      </c>
+      <c r="B9" s="191" t="s">
         <v>259</v>
       </c>
-      <c r="B9" s="191" t="s">
+      <c r="C9" s="192" t="s">
         <v>260</v>
       </c>
-      <c r="C9" s="192" t="s">
+      <c r="D9" s="191" t="s">
         <v>261</v>
       </c>
-      <c r="D9" s="191" t="s">
+      <c r="E9" s="191" t="s">
         <v>262</v>
       </c>
-      <c r="E9" s="191" t="s">
+      <c r="F9" s="191" t="s">
         <v>263</v>
       </c>
-      <c r="F9" s="191" t="s">
+      <c r="G9" s="191" t="s">
         <v>264</v>
       </c>
-      <c r="G9" s="191" t="s">
+      <c r="H9" s="191" t="s">
         <v>265</v>
       </c>
-      <c r="H9" s="191" t="s">
-        <v>266</v>
-      </c>
-      <c r="I9" s="193" t="s">
-        <v>267</v>
-      </c>
       <c r="J9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="N9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="P9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Q9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="R9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="S9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="U9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="V9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="W9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="X9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Y9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Z9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AA9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AB9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AC9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AD9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AE9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AG9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AH9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AI9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AK9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AL9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AM9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AN9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AO9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AP9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AQ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AR9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AS9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AT9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AU9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AV9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AW9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AX9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AY9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AZ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="BA9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="BB9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="BC9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="BD9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="BE9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="BF9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="BG9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="BH9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="BI9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="BJ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="BK9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="BL9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="BM9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="BN9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="BO9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="BP9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="BQ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="BR9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="BS9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="BT9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="BU9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="BV9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="BW9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="BX9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="BY9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="BZ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="CA9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="CB9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="CC9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="CD9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="CE9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="CF9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="CG9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="CH9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="CI9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="CJ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="CK9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="CL9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="CM9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="CN9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="CO9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="CP9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="CQ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="CR9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="CS9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="CT9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="CU9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="CV9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="CW9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="CX9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="CY9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="CZ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="DA9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="DB9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="DC9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="DD9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="DE9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="DF9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="DG9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="DH9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="DI9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="DJ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="DK9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="DL9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="DM9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="DN9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="DO9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="DP9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="DQ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="DR9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="DS9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="DT9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="DU9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="DV9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="DW9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="DX9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="DY9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="DZ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="EA9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="EB9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="EC9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ED9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="EE9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="EF9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="EG9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="EH9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="EI9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="EJ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="EK9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="EL9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="EM9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="EN9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="EO9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="EP9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="EQ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ER9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ES9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ET9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="EU9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="EV9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="EW9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="EX9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="EY9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="EZ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="FA9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="FB9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="FC9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="FD9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="FE9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="FF9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="FG9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="FH9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="FI9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="FJ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="FK9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="FL9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="FM9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="FN9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="FO9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="FP9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="FQ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="FR9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="FS9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="FT9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="FU9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="FV9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="FW9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="FX9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="FY9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="FZ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="GA9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="GB9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="GC9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="GD9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="GE9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="GF9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="GG9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="GH9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="GI9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="GJ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="GK9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="GL9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="GM9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="GN9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="GO9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="GP9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="GQ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="GR9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="GS9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="GT9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="GU9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="GV9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="GW9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="GX9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="GY9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="GZ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="HA9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="HB9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="HC9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="HD9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="HE9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="HF9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="HG9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="HH9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="HI9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="HJ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="HK9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="HL9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="HM9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="HN9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="HO9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="HP9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="HQ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="HR9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="HS9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="HT9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="HU9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="HV9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="HW9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="HX9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="HY9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="HZ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="IA9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="IB9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="IC9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ID9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="IE9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="IF9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="IG9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="IH9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="II9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="IJ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="IK9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="IL9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="IM9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="IN9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="IO9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="IP9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="IQ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="IR9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="IS9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="IT9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="IU9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="IV9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="IW9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="IX9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="IY9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="IZ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="JA9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="JB9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="JC9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="JD9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="JE9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="JF9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="JG9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="JH9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="JI9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="JJ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="JK9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="JL9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="JM9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="JN9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="JO9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="JP9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="JQ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="JR9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="JS9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="JT9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="JU9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="JV9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="JW9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="JX9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="JY9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="JZ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="KA9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="KB9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="KC9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="KD9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="KE9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="KF9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="KG9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="KH9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="KI9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="KJ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="KK9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="KL9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="KM9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="KN9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="KO9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="KP9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="KQ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="KR9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="KS9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="KT9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="KU9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="KV9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="KW9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="KX9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="KY9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="KZ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="LA9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="LB9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="LC9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="LD9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="LE9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="LF9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="LG9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="LH9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="LI9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="LJ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="LK9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="LL9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="LM9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="LN9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="LO9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="LP9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="LQ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="LR9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="LS9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="LT9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="LU9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="LV9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="LW9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="LX9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="LY9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="LZ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="MA9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="MB9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="MC9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="MD9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ME9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="MF9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="MG9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="MH9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="MI9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="MJ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="MK9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ML9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="MM9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="MN9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="MO9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="MP9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="MQ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="MR9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="MS9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="MT9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="MU9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="MV9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="MW9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="MX9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="MY9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="MZ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="NA9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="NB9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="NC9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ND9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="NE9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="NF9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="NG9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="NH9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="NI9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="NJ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="NK9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="NL9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="NM9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="NN9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="NO9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="NP9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="NQ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="NR9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="NS9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="NT9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="NU9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="NV9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="NW9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="NX9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="NY9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="NZ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="OA9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="OB9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="OC9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="OD9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="OE9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="OF9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="OG9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="OH9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="OI9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="OJ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="OK9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="OL9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="OM9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ON9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="OO9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="OP9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="OQ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="OR9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="OS9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="OT9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="OU9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="OV9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="OW9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="OX9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="OY9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="OZ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="PA9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="PB9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="PC9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="PD9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="PE9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="PF9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="PG9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="PH9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="PI9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="PJ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="PK9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="PL9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="PM9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="PN9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="PO9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="PP9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="PQ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="PR9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="PS9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="PT9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="PU9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="PV9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="PW9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="PX9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="PY9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="PZ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="QA9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="QB9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="QC9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="QD9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="QE9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="QF9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="QG9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="QH9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="QI9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="QJ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="QK9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="QL9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="QM9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="QN9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="QO9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="QP9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="QQ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="QR9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="QS9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="QT9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="QU9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="QV9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="QW9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="QX9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="QY9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="QZ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="RA9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="RB9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="RC9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="RD9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="RE9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="RF9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="RG9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="RH9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="RI9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="RJ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="RK9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="RL9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="RM9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="RN9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="RO9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="RP9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="RQ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="RR9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="RS9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="RT9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="RU9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="RV9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="RW9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="RX9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="RY9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="RZ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="SA9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="SB9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="SC9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="SD9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="SE9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="SF9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="SG9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="SH9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="SI9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="SJ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="SK9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="SL9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="SM9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="SN9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="SO9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="SP9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="SQ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="SR9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="SS9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ST9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="SU9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="SV9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="SW9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="SX9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="SY9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="SZ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="TA9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="TB9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="TC9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="TD9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="TE9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="TF9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="TG9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="TH9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="TI9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="TJ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="TK9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="TL9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="TM9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="TN9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="TO9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="TP9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="TQ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="TR9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="TS9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="TT9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="TU9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="TV9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="TW9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="TX9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="TY9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="TZ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="UA9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="UB9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="UC9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="UD9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="UE9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="UF9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="UG9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="UH9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="UI9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="UJ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="UK9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="UL9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="UM9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="UN9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="UO9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="UP9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="UQ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="UR9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="US9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="UT9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="UU9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="UV9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="UW9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="UX9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="UY9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="UZ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="VA9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="VB9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="VC9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="VD9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="VE9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="VF9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="VG9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="VH9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="VI9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="VJ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="VK9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="VL9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="VM9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="VN9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="VO9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="VP9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="VQ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="VR9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="VS9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="VT9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="VU9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="VV9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="VW9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="VX9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="VY9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="VZ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="WA9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="WB9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="WC9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="WD9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="WE9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="WF9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="WG9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="WH9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="WI9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="WJ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="WK9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="WL9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="WM9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="WN9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="WO9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="WP9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="WQ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="WR9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="WS9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="WT9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="WU9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="WV9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="WW9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="WX9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="WY9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="WZ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="XA9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="XB9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="XC9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="XD9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="XE9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="XF9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="XG9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="XH9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="XI9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="XJ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="XK9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="XL9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="XM9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="XN9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="XO9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="XP9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="XQ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="XR9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="XS9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="XT9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="XU9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="XV9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="XW9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="XX9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="XY9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="XZ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="YA9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="YB9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="YC9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="YD9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="YE9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="YF9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="YG9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="YH9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="YI9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="YJ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="YK9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="YL9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="YM9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="YN9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="YO9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="YP9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="YQ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="YR9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="YS9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="YT9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="YU9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="YV9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="YW9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="YX9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="YY9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="YZ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ZA9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ZB9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ZC9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ZD9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ZE9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ZF9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ZG9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ZH9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ZI9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ZJ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ZK9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ZL9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ZM9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ZN9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ZO9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ZP9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ZQ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ZR9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ZS9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ZT9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ZU9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ZV9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ZW9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ZX9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ZY9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ZZ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AAA9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AAB9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AAC9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AAD9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AAE9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AAF9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AAG9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AAH9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AAI9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AAJ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AAK9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AAL9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AAM9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AAN9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AAO9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AAP9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AAQ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AAR9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AAS9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AAT9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AAU9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AAV9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AAW9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AAX9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AAY9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AAZ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ABA9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ABB9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ABC9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ABD9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ABE9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ABF9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ABG9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ABH9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ABI9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ABJ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ABK9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ABL9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ABM9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ABN9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ABO9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ABP9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ABQ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ABR9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ABS9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ABT9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ABU9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ABV9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ABW9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ABX9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ABY9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ABZ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ACA9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ACB9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ACC9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ACD9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ACE9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ACF9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ACG9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ACH9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ACI9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ACJ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ACK9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ACL9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ACM9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ACN9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ACO9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ACP9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ACQ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ACR9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ACS9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ACT9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ACU9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ACV9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ACW9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ACX9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ACY9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ACZ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ADA9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ADB9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ADC9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ADD9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ADE9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ADF9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ADG9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ADH9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ADI9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ADJ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ADK9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ADL9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ADM9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ADN9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ADO9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ADP9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ADQ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ADR9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ADS9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ADT9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ADU9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ADV9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ADW9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ADX9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ADY9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ADZ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AEA9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AEB9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AEC9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AED9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AEE9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AEF9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AEG9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AEH9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AEI9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AEJ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AEK9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AEL9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AEM9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AEN9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AEO9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AEP9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AEQ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AER9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AES9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AET9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AEU9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AEV9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AEW9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AEX9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AEY9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AEZ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AFA9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AFB9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AFC9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AFD9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AFE9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AFF9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AFG9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AFH9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AFI9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AFJ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AFK9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AFL9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AFM9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AFN9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AFO9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AFP9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AFQ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AFR9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AFS9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AFT9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AFU9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AFV9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AFW9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AFX9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AFY9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AFZ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AGA9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AGB9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AGC9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AGD9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AGE9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AGF9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AGG9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AGH9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AGI9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AGJ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AGK9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AGL9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AGM9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AGN9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AGO9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AGP9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AGQ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AGR9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AGS9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AGT9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AGU9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AGV9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AGW9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AGX9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AGY9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AGZ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AHA9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AHB9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AHC9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AHD9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AHE9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AHF9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AHG9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AHH9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AHI9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AHJ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AHK9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AHL9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AHM9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AHN9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AHO9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AHP9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AHQ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AHR9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AHS9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AHT9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AHU9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AHV9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AHW9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AHX9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AHY9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AHZ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AIA9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AIB9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AIC9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AID9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AIE9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AIF9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AIG9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AIH9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AII9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AIJ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AIK9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AIL9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AIM9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AIN9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AIO9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AIP9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AIQ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AIR9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AIS9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AIT9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AIU9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AIV9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AIW9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AIX9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AIY9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AIZ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJA9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJB9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJC9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJD9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJE9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJF9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJG9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJH9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJI9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJJ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJK9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJL9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJM9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJN9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJO9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJP9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJQ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJR9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJS9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJT9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJU9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJV9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJW9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJX9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJY9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJZ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AKA9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AKB9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AKC9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AKD9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AKE9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AKF9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AKG9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AKH9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AKI9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AKJ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AKK9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AKL9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AKM9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AKN9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AKO9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AKP9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AKQ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AKR9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AKS9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AKT9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AKU9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AKV9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AKW9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AKX9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AKY9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AKZ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ALA9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ALB9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ALC9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ALD9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ALE9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ALF9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ALG9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ALH9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ALI9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ALJ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ALK9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ALL9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ALM9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ALN9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ALO9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ALP9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ALQ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ALR9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ALS9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ALT9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ALU9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ALV9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ALW9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ALX9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ALY9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="ALZ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AMA9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AMB9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AMC9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AMD9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AME9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AMF9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AMG9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AMH9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AMI9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AMJ9" s="194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12431,14 +12490,14 @@
         <v>36</v>
       </c>
       <c r="B10" s="196" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C10" s="197" t="n">
         <v>45020</v>
       </c>
       <c r="D10" s="198"/>
       <c r="E10" s="198" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F10" s="196" t="n">
         <v>10</v>
@@ -12447,10 +12506,7 @@
         <v>5</v>
       </c>
       <c r="H10" s="196" t="s">
-        <v>271</v>
-      </c>
-      <c r="I10" s="127" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12458,16 +12514,16 @@
         <v>36</v>
       </c>
       <c r="B11" s="196" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C11" s="199" t="n">
         <v>45020</v>
       </c>
       <c r="D11" s="196" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E11" s="196" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F11" s="196" t="n">
         <v>10</v>
@@ -12571,7 +12627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -12758,16 +12814,16 @@
         <v>9</v>
       </c>
       <c r="F5" s="201" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G5" s="201" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H5" s="201" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I5" s="201" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J5" s="201" t="s">
         <v>9</v>
@@ -12827,35 +12883,35 @@
     </row>
     <row r="7" s="24" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C7" s="40"/>
       <c r="D7" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="G7" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="H7" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="I7" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="J7" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="K7" s="16" t="s">
         <v>283</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>286</v>
       </c>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
@@ -12924,19 +12980,19 @@
         <v>55</v>
       </c>
       <c r="F9" s="202" t="s">
+        <v>284</v>
+      </c>
+      <c r="G9" s="202" t="s">
+        <v>285</v>
+      </c>
+      <c r="H9" s="202" t="s">
+        <v>280</v>
+      </c>
+      <c r="I9" s="202" t="s">
+        <v>286</v>
+      </c>
+      <c r="J9" s="202" t="s">
         <v>287</v>
-      </c>
-      <c r="G9" s="202" t="s">
-        <v>288</v>
-      </c>
-      <c r="H9" s="202" t="s">
-        <v>283</v>
-      </c>
-      <c r="I9" s="202" t="s">
-        <v>289</v>
-      </c>
-      <c r="J9" s="202" t="s">
-        <v>290</v>
       </c>
       <c r="K9" s="204" t="s">
         <v>35</v>
@@ -12944,19 +13000,19 @@
     </row>
     <row r="10" customFormat="false" ht="101.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="205" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B10" s="206" t="n">
         <v>45033</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D10" s="207" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E10" s="207" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F10" s="208" t="n">
         <v>38.9</v>
@@ -12968,10 +13024,10 @@
         <v>0.473</v>
       </c>
       <c r="J10" s="210" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K10" s="207" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13046,604 +13102,595 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AE21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E6" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M10" activeCellId="0" sqref="M10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L27" activeCellId="0" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="17.34375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="42" width="17.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="127" width="20.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="213" width="17.32"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="214" width="17.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="213" width="17.32"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="4" style="215" width="17.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="7" style="213" width="17.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="216" width="20.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="14" style="213" width="17.32"/>
   </cols>
   <sheetData>
-    <row r="1" s="200" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
+    <row r="1" s="220" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="217" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="174"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-    </row>
-    <row r="2" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="218"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
+      <c r="H1" s="217"/>
+      <c r="I1" s="217"/>
+      <c r="J1" s="217"/>
+      <c r="K1" s="217"/>
+      <c r="L1" s="217"/>
+      <c r="M1" s="217"/>
+      <c r="N1" s="217"/>
+      <c r="O1" s="217"/>
+      <c r="P1" s="217"/>
+      <c r="Q1" s="219"/>
+      <c r="R1" s="219"/>
+      <c r="S1" s="217"/>
+      <c r="T1" s="217"/>
+      <c r="U1" s="219"/>
+      <c r="V1" s="219"/>
+      <c r="W1" s="219"/>
+      <c r="X1" s="219"/>
+      <c r="Y1" s="219"/>
+      <c r="Z1" s="219"/>
+      <c r="AA1" s="219"/>
+      <c r="AB1" s="219"/>
+      <c r="AC1" s="219"/>
+      <c r="AD1" s="219"/>
+      <c r="AE1" s="219"/>
+    </row>
+    <row r="2" s="219" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="221" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="177"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-    </row>
-    <row r="3" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="70" t="s">
+      <c r="B2" s="222"/>
+      <c r="C2" s="221"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="221"/>
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="221"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="221"/>
+      <c r="N2" s="221"/>
+      <c r="O2" s="221"/>
+      <c r="P2" s="221"/>
+      <c r="Q2" s="223"/>
+      <c r="R2" s="223"/>
+      <c r="S2" s="221"/>
+      <c r="T2" s="221"/>
+      <c r="U2" s="223"/>
+      <c r="V2" s="223"/>
+      <c r="W2" s="223"/>
+      <c r="X2" s="223"/>
+      <c r="Y2" s="223"/>
+      <c r="Z2" s="223"/>
+      <c r="AA2" s="223"/>
+      <c r="AB2" s="223"/>
+      <c r="AC2" s="223"/>
+      <c r="AD2" s="223"/>
+      <c r="AE2" s="223"/>
+    </row>
+    <row r="3" s="223" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="224" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="213" t="s">
+      <c r="B3" s="225" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="226" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="226" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="224" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="70" t="s">
+      <c r="F3" s="224" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="70" t="s">
+      <c r="G3" s="224" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="71" t="s">
+      <c r="H3" s="226" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="205" t="s">
+      <c r="I3" s="227" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="205" t="s">
+      <c r="J3" s="227" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="205" t="s">
+      <c r="K3" s="227" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="85" t="s">
+      <c r="L3" s="228" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="182" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-    </row>
-    <row r="4" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="M3" s="226"/>
+      <c r="N3" s="229"/>
+      <c r="O3" s="230"/>
+      <c r="P3" s="230"/>
+      <c r="Q3" s="220"/>
+      <c r="R3" s="220"/>
+      <c r="S3" s="230"/>
+      <c r="T3" s="230"/>
+      <c r="U3" s="220"/>
+      <c r="V3" s="220"/>
+      <c r="W3" s="220"/>
+      <c r="X3" s="220"/>
+      <c r="Y3" s="220"/>
+      <c r="Z3" s="220"/>
+      <c r="AA3" s="220"/>
+      <c r="AB3" s="220"/>
+      <c r="AC3" s="220"/>
+      <c r="AD3" s="220"/>
+      <c r="AE3" s="220"/>
+    </row>
+    <row r="4" s="220" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="221" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="177"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-    </row>
-    <row r="5" s="18" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="70" t="s">
+      <c r="B4" s="222"/>
+      <c r="C4" s="221"/>
+      <c r="D4" s="221"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="221"/>
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="221"/>
+      <c r="J4" s="221"/>
+      <c r="K4" s="221"/>
+      <c r="L4" s="221"/>
+      <c r="M4" s="221"/>
+      <c r="N4" s="221"/>
+      <c r="O4" s="221"/>
+      <c r="P4" s="221"/>
+      <c r="Q4" s="223"/>
+      <c r="R4" s="223"/>
+      <c r="S4" s="221"/>
+      <c r="T4" s="221"/>
+      <c r="U4" s="223"/>
+      <c r="V4" s="223"/>
+      <c r="W4" s="223"/>
+      <c r="X4" s="223"/>
+      <c r="Y4" s="223"/>
+      <c r="Z4" s="223"/>
+      <c r="AA4" s="223"/>
+      <c r="AB4" s="223"/>
+      <c r="AC4" s="223"/>
+      <c r="AD4" s="223"/>
+      <c r="AE4" s="223"/>
+    </row>
+    <row r="5" s="232" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="224" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="213" t="s">
+      <c r="B5" s="225" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71" t="s">
+      <c r="C5" s="226"/>
+      <c r="D5" s="226"/>
+      <c r="E5" s="226"/>
+      <c r="F5" s="226" t="s">
+        <v>292</v>
+      </c>
+      <c r="G5" s="226"/>
+      <c r="H5" s="226" t="s">
+        <v>292</v>
+      </c>
+      <c r="I5" s="227" t="s">
+        <v>293</v>
+      </c>
+      <c r="J5" s="227" t="s">
+        <v>250</v>
+      </c>
+      <c r="K5" s="227" t="s">
+        <v>250</v>
+      </c>
+      <c r="L5" s="226"/>
+      <c r="M5" s="226"/>
+      <c r="N5" s="229"/>
+      <c r="O5" s="229"/>
+      <c r="P5" s="229"/>
+      <c r="Q5" s="231"/>
+      <c r="R5" s="231"/>
+      <c r="S5" s="229"/>
+      <c r="T5" s="229"/>
+      <c r="U5" s="231"/>
+      <c r="V5" s="231"/>
+      <c r="W5" s="231"/>
+      <c r="X5" s="231"/>
+      <c r="Y5" s="231"/>
+      <c r="Z5" s="231"/>
+      <c r="AA5" s="231"/>
+      <c r="AB5" s="231"/>
+      <c r="AC5" s="231"/>
+      <c r="AD5" s="231"/>
+      <c r="AE5" s="231"/>
+    </row>
+    <row r="6" s="231" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="221" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="222"/>
+      <c r="C6" s="221"/>
+      <c r="D6" s="221"/>
+      <c r="E6" s="221"/>
+      <c r="F6" s="221"/>
+      <c r="G6" s="221"/>
+      <c r="H6" s="221"/>
+      <c r="I6" s="233"/>
+      <c r="J6" s="233"/>
+      <c r="K6" s="233"/>
+      <c r="L6" s="221"/>
+      <c r="M6" s="221"/>
+      <c r="N6" s="221"/>
+      <c r="O6" s="221"/>
+      <c r="P6" s="221"/>
+      <c r="Q6" s="223"/>
+      <c r="R6" s="223"/>
+      <c r="S6" s="221"/>
+      <c r="T6" s="221"/>
+      <c r="U6" s="223"/>
+      <c r="V6" s="223"/>
+      <c r="W6" s="223"/>
+      <c r="X6" s="223"/>
+      <c r="Y6" s="223"/>
+      <c r="Z6" s="223"/>
+      <c r="AA6" s="223"/>
+      <c r="AB6" s="223"/>
+      <c r="AC6" s="223"/>
+      <c r="AD6" s="223"/>
+      <c r="AE6" s="223"/>
+    </row>
+    <row r="7" s="223" customFormat="true" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="234" t="s">
+        <v>294</v>
+      </c>
+      <c r="B7" s="235" t="s">
+        <v>275</v>
+      </c>
+      <c r="C7" s="234"/>
+      <c r="D7" s="234"/>
+      <c r="E7" s="234" t="s">
         <v>295</v>
       </c>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="I5" s="205" t="s">
+      <c r="F7" s="234" t="s">
         <v>296</v>
       </c>
-      <c r="J5" s="205" t="s">
-        <v>250</v>
-      </c>
-      <c r="K5" s="205" t="s">
-        <v>250</v>
-      </c>
-      <c r="L5" s="71"/>
-      <c r="M5" s="182" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="21"/>
-    </row>
-    <row r="6" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="214"/>
-      <c r="J6" s="214"/>
-      <c r="K6" s="214"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="177"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="24"/>
-    </row>
-    <row r="7" s="24" customFormat="true" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="215" t="s">
+      <c r="G7" s="234" t="s">
         <v>297</v>
       </c>
-      <c r="B7" s="216" t="s">
-        <v>278</v>
-      </c>
-      <c r="C7" s="215"/>
-      <c r="D7" s="215"/>
-      <c r="E7" s="215" t="s">
+      <c r="H7" s="234" t="s">
         <v>298</v>
       </c>
-      <c r="F7" s="215" t="s">
+      <c r="I7" s="236" t="s">
         <v>299</v>
       </c>
-      <c r="G7" s="215" t="s">
+      <c r="J7" s="236" t="s">
         <v>300</v>
       </c>
-      <c r="H7" s="215" t="s">
+      <c r="K7" s="236" t="s">
         <v>301</v>
       </c>
-      <c r="I7" s="40" t="s">
+      <c r="L7" s="237" t="s">
         <v>302</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="M7" s="229"/>
+      <c r="N7" s="229"/>
+      <c r="O7" s="229"/>
+      <c r="P7" s="229"/>
+      <c r="Q7" s="231"/>
+      <c r="R7" s="231"/>
+      <c r="S7" s="229"/>
+      <c r="T7" s="229"/>
+      <c r="U7" s="231"/>
+      <c r="V7" s="231"/>
+      <c r="W7" s="231"/>
+      <c r="X7" s="231"/>
+      <c r="Y7" s="231"/>
+      <c r="Z7" s="231"/>
+      <c r="AA7" s="231"/>
+      <c r="AB7" s="231"/>
+      <c r="AC7" s="231"/>
+      <c r="AD7" s="231"/>
+      <c r="AE7" s="231"/>
+    </row>
+    <row r="8" s="238" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="217" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="218"/>
+      <c r="C8" s="217"/>
+      <c r="D8" s="217"/>
+      <c r="E8" s="217"/>
+      <c r="F8" s="217"/>
+      <c r="G8" s="217"/>
+      <c r="H8" s="217"/>
+      <c r="I8" s="217"/>
+      <c r="J8" s="217"/>
+      <c r="K8" s="217"/>
+      <c r="L8" s="217"/>
+      <c r="M8" s="217"/>
+      <c r="N8" s="217"/>
+      <c r="O8" s="217"/>
+      <c r="P8" s="217"/>
+      <c r="Q8" s="219"/>
+      <c r="R8" s="219"/>
+      <c r="S8" s="217"/>
+      <c r="T8" s="217"/>
+      <c r="U8" s="219"/>
+      <c r="V8" s="219"/>
+      <c r="W8" s="219"/>
+      <c r="X8" s="219"/>
+      <c r="Y8" s="219"/>
+      <c r="Z8" s="219"/>
+      <c r="AA8" s="219"/>
+      <c r="AB8" s="219"/>
+      <c r="AC8" s="219"/>
+      <c r="AD8" s="219"/>
+      <c r="AE8" s="219"/>
+    </row>
+    <row r="9" s="219" customFormat="true" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="239" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="239" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="239" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="239" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="239" t="s">
         <v>303</v>
       </c>
-      <c r="K7" s="40" t="s">
+      <c r="F9" s="239" t="s">
         <v>304</v>
       </c>
-      <c r="L7" s="72" t="s">
+      <c r="G9" s="239" t="s">
         <v>305</v>
       </c>
-      <c r="M7" s="183" t="s">
-        <v>258</v>
-      </c>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="21"/>
-      <c r="AE7" s="21"/>
-    </row>
-    <row r="8" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="174"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="30"/>
-      <c r="AD8" s="30"/>
-      <c r="AE8" s="30"/>
-    </row>
-    <row r="9" s="30" customFormat="true" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="217" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="217" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="217" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="217" t="s">
+      <c r="H9" s="239" t="s">
         <v>306</v>
       </c>
-      <c r="F9" s="217" t="s">
+      <c r="I9" s="239" t="s">
         <v>307</v>
       </c>
-      <c r="G9" s="217" t="s">
+      <c r="J9" s="239" t="s">
         <v>308</v>
       </c>
-      <c r="H9" s="217" t="s">
+      <c r="K9" s="239" t="s">
         <v>309</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="L9" s="240" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="241"/>
+      <c r="N9" s="242"/>
+      <c r="O9" s="220" t="s">
+        <v>266</v>
+      </c>
+      <c r="P9" s="220" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q9" s="220" t="s">
+        <v>266</v>
+      </c>
+      <c r="R9" s="220" t="s">
+        <v>266</v>
+      </c>
+      <c r="S9" s="220" t="s">
+        <v>266</v>
+      </c>
+      <c r="T9" s="220" t="s">
+        <v>266</v>
+      </c>
+      <c r="U9" s="220" t="s">
+        <v>266</v>
+      </c>
+      <c r="V9" s="220" t="s">
+        <v>266</v>
+      </c>
+      <c r="W9" s="220" t="s">
+        <v>266</v>
+      </c>
+      <c r="X9" s="220" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y9" s="220" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z9" s="220" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA9" s="220" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB9" s="220" t="s">
+        <v>266</v>
+      </c>
+      <c r="AC9" s="220" t="s">
+        <v>266</v>
+      </c>
+      <c r="AD9" s="220" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE9" s="220" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="243" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="244" t="n">
+        <v>45012</v>
+      </c>
+      <c r="C10" s="245" t="s">
+        <v>288</v>
+      </c>
+      <c r="D10" s="245" t="s">
         <v>310</v>
       </c>
-      <c r="J9" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="K9" s="33" t="s">
-        <v>312</v>
-      </c>
-      <c r="L9" s="218" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" s="193" t="s">
-        <v>313</v>
-      </c>
-      <c r="N9" s="219" t="s">
-        <v>268</v>
-      </c>
-      <c r="O9" s="220" t="s">
-        <v>268</v>
-      </c>
-      <c r="P9" s="220" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q9" s="220" t="s">
-        <v>268</v>
-      </c>
-      <c r="R9" s="220" t="s">
-        <v>268</v>
-      </c>
-      <c r="S9" s="220" t="s">
-        <v>268</v>
-      </c>
-      <c r="T9" s="220" t="s">
-        <v>268</v>
-      </c>
-      <c r="U9" s="220" t="s">
-        <v>268</v>
-      </c>
-      <c r="V9" s="220" t="s">
-        <v>268</v>
-      </c>
-      <c r="W9" s="220" t="s">
-        <v>268</v>
-      </c>
-      <c r="X9" s="220" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y9" s="220" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z9" s="220" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA9" s="220" t="s">
-        <v>268</v>
-      </c>
-      <c r="AB9" s="220" t="s">
-        <v>268</v>
-      </c>
-      <c r="AC9" s="220" t="s">
-        <v>268</v>
-      </c>
-      <c r="AD9" s="220" t="s">
-        <v>268</v>
-      </c>
-      <c r="AE9" s="220" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="221" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="222" t="n">
-        <v>45012</v>
-      </c>
-      <c r="C10" s="223" t="s">
-        <v>291</v>
-      </c>
-      <c r="D10" s="223" t="s">
-        <v>314</v>
-      </c>
-      <c r="E10" s="224"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="225"/>
-      <c r="H10" s="225" t="n">
+      <c r="E10" s="246"/>
+      <c r="F10" s="236"/>
+      <c r="G10" s="247"/>
+      <c r="H10" s="247" t="n">
         <v>530</v>
       </c>
-      <c r="I10" s="226" t="n">
+      <c r="I10" s="248" t="n">
         <f aca="false">H10/GrowthRun!$C$10</f>
         <v>17.6666666666667</v>
       </c>
-      <c r="J10" s="227"/>
-      <c r="K10" s="227"/>
-      <c r="L10" s="228" t="s">
-        <v>315</v>
-      </c>
-      <c r="M10" s="127" t="s">
-        <v>316</v>
-      </c>
-      <c r="N10" s="228"/>
+      <c r="J10" s="249"/>
+      <c r="K10" s="249"/>
+      <c r="L10" s="242" t="s">
+        <v>311</v>
+      </c>
+      <c r="N10" s="242"/>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="221" t="s">
+      <c r="A11" s="243" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="222" t="n">
+      <c r="B11" s="244" t="n">
         <v>45012</v>
       </c>
-      <c r="C11" s="223" t="s">
-        <v>291</v>
-      </c>
-      <c r="D11" s="223" t="s">
-        <v>314</v>
-      </c>
-      <c r="E11" s="224"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="225"/>
-      <c r="H11" s="225" t="n">
+      <c r="C11" s="245" t="s">
+        <v>288</v>
+      </c>
+      <c r="D11" s="245" t="s">
+        <v>310</v>
+      </c>
+      <c r="E11" s="246"/>
+      <c r="F11" s="236"/>
+      <c r="G11" s="247"/>
+      <c r="H11" s="247" t="n">
         <v>870</v>
       </c>
-      <c r="I11" s="226" t="n">
+      <c r="I11" s="248" t="n">
         <f aca="false">H11/GrowthRun!$C$10</f>
         <v>29</v>
       </c>
-      <c r="J11" s="227"/>
-      <c r="K11" s="227"/>
-      <c r="L11" s="228" t="s">
-        <v>317</v>
-      </c>
-      <c r="N11" s="228"/>
+      <c r="J11" s="249"/>
+      <c r="K11" s="249"/>
+      <c r="L11" s="242" t="s">
+        <v>312</v>
+      </c>
+      <c r="N11" s="242"/>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="221" t="s">
+      <c r="A12" s="243" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="222" t="n">
+      <c r="B12" s="244" t="n">
         <v>45012</v>
       </c>
-      <c r="C12" s="223" t="s">
-        <v>291</v>
-      </c>
-      <c r="D12" s="223" t="s">
-        <v>314</v>
-      </c>
-      <c r="E12" s="224"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="225"/>
-      <c r="H12" s="225" t="n">
+      <c r="C12" s="245" t="s">
+        <v>288</v>
+      </c>
+      <c r="D12" s="245" t="s">
+        <v>310</v>
+      </c>
+      <c r="E12" s="246"/>
+      <c r="F12" s="236"/>
+      <c r="G12" s="247"/>
+      <c r="H12" s="247" t="n">
         <v>760</v>
       </c>
-      <c r="I12" s="226" t="n">
+      <c r="I12" s="248" t="n">
         <f aca="false">H12/GrowthRun!$C$10</f>
         <v>25.3333333333333</v>
       </c>
-      <c r="J12" s="227"/>
-      <c r="K12" s="227"/>
-      <c r="L12" s="228" t="s">
-        <v>318</v>
-      </c>
-      <c r="N12" s="228"/>
+      <c r="J12" s="249"/>
+      <c r="K12" s="249"/>
+      <c r="L12" s="242" t="s">
+        <v>313</v>
+      </c>
+      <c r="N12" s="242"/>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="221" t="s">
+      <c r="A13" s="243" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="222" t="n">
+      <c r="B13" s="244" t="n">
         <v>45012</v>
       </c>
-      <c r="C13" s="223" t="s">
-        <v>291</v>
-      </c>
-      <c r="D13" s="223" t="s">
-        <v>314</v>
-      </c>
-      <c r="E13" s="224"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="225"/>
-      <c r="H13" s="225" t="n">
+      <c r="C13" s="245" t="s">
+        <v>288</v>
+      </c>
+      <c r="D13" s="245" t="s">
         <v>310</v>
       </c>
-      <c r="I13" s="226" t="n">
+      <c r="E13" s="246"/>
+      <c r="F13" s="236"/>
+      <c r="G13" s="247"/>
+      <c r="H13" s="247" t="n">
+        <v>310</v>
+      </c>
+      <c r="I13" s="248" t="n">
         <f aca="false">H13/GrowthRun!$C$10</f>
         <v>10.3333333333333</v>
       </c>
-      <c r="J13" s="227"/>
-      <c r="K13" s="227"/>
-      <c r="L13" s="228" t="s">
-        <v>319</v>
-      </c>
-      <c r="N13" s="228"/>
+      <c r="J13" s="249"/>
+      <c r="K13" s="249"/>
+      <c r="L13" s="242" t="s">
+        <v>314</v>
+      </c>
+      <c r="N13" s="242"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="229"/>
-      <c r="L14" s="230"/>
-      <c r="N14" s="230"/>
+      <c r="A14" s="250"/>
+      <c r="L14" s="216"/>
+      <c r="N14" s="216"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="229"/>
+      <c r="A15" s="250"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="229"/>
+      <c r="A16" s="250"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="229"/>
+      <c r="A17" s="250"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="229"/>
+      <c r="A18" s="250"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="229"/>
+      <c r="A19" s="250"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="229"/>
+      <c r="A20" s="250"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="229"/>
+      <c r="A21" s="250"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/movpe_CNR/013_example_dataset.xlsx
+++ b/movpe_CNR/013_example_dataset.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" state="visible" r:id="rId2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="352">
   <si>
     <t xml:space="preserve"># start Header</t>
   </si>
@@ -281,7 +281,10 @@
     <t xml:space="preserve">°</t>
   </si>
   <si>
-    <t xml:space="preserve">mm²</t>
+    <t xml:space="preserve">inches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mm</t>
   </si>
   <si>
     <t xml:space="preserve">Material</t>
@@ -308,7 +311,13 @@
     <t xml:space="preserve">Off-cut angle to the substrates surface</t>
   </si>
   <si>
-    <t xml:space="preserve">Substrate dimensions</t>
+    <t xml:space="preserve">Substrate dimensions diameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substrate dimensions X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substrate dimensions Y</t>
   </si>
   <si>
     <t xml:space="preserve">Susceptor (Material - Adaptor)</t>
@@ -347,7 +356,13 @@
     <t xml:space="preserve">Off-cut</t>
   </si>
   <si>
-    <t xml:space="preserve">Size</t>
+    <t xml:space="preserve">Size Diameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size Y</t>
   </si>
   <si>
     <t xml:space="preserve">Susceptor</t>
@@ -393,9 +408,6 @@
   </si>
   <si>
     <t xml:space="preserve">001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2''</t>
   </si>
   <si>
     <t xml:space="preserve">Metal [Nickel Alloy]</t>
@@ -786,9 +798,6 @@
     <t xml:space="preserve">open in reactor at 50°C</t>
   </si>
   <si>
-    <t xml:space="preserve">mm</t>
-  </si>
-  <si>
     <t xml:space="preserve"># the sample to be cut</t>
   </si>
   <si>
@@ -823,12 +832,6 @@
   </si>
   <si>
     <t xml:space="preserve">Experiment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Size X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Size Y</t>
   </si>
   <si>
     <t xml:space="preserve">Collaborator</t>
@@ -2863,7 +2866,7 @@
   </sheetPr>
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -3342,7 +3345,7 @@
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="50" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="42" width="24.15"/>
@@ -3392,7 +3395,7 @@
     </row>
     <row r="3" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="70" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B3" s="251" t="s">
         <v>3</v>
@@ -3447,7 +3450,7 @@
     </row>
     <row r="5" s="21" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="70" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B5" s="251" t="s">
         <v>8</v>
@@ -3456,7 +3459,7 @@
       <c r="D5" s="71"/>
       <c r="E5" s="71"/>
       <c r="F5" s="71" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G5" s="70"/>
       <c r="H5" s="71"/>
@@ -3489,18 +3492,18 @@
     </row>
     <row r="7" s="26" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="70" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B7" s="252" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C7" s="70"/>
       <c r="D7" s="70"/>
       <c r="E7" s="71" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F7" s="71" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G7" s="71"/>
       <c r="H7" s="253"/>
@@ -3546,10 +3549,10 @@
     </row>
     <row r="9" s="258" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="254" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B9" s="255" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C9" s="256" t="s">
         <v>26</v>
@@ -3558,10 +3561,10 @@
         <v>27</v>
       </c>
       <c r="E9" s="254" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F9" s="254" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G9" s="254"/>
       <c r="H9" s="257"/>
@@ -3661,7 +3664,7 @@
       <selection pane="topLeft" activeCell="N15" activeCellId="0" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="50" width="13.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="50" width="14.01"/>
@@ -3681,100 +3684,100 @@
         <v>0</v>
       </c>
       <c r="B1" s="265" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C1" s="265" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D1" s="265" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E1" s="265" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F1" s="265" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G1" s="266" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H1" s="265" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I1" s="265" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J1" s="265" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K1" s="265" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L1" s="265" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M1" s="265" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N1" s="265" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O1" s="265" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P1" s="265" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q1" s="267" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="R1" s="267" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="S1" s="267" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="T1" s="267" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="U1" s="267" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="V1" s="267" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="W1" s="267" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="X1" s="267" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Y1" s="267" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z1" s="267" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AA1" s="267" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AB1" s="267" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AC1" s="267" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AD1" s="267" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AE1" s="267" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF1" s="267" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG1" s="267" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3782,105 +3785,105 @@
         <v>1</v>
       </c>
       <c r="B2" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C2" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D2" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E2" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F2" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G2" s="270" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H2" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I2" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J2" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K2" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L2" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M2" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N2" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O2" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P2" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q2" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="R2" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="S2" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="T2" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="U2" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="V2" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="W2" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="X2" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Y2" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z2" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AA2" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AB2" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AC2" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AD2" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AE2" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF2" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG2" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="271" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B3" s="272" t="s">
         <v>3</v>
@@ -3922,61 +3925,61 @@
         <v>4</v>
       </c>
       <c r="O3" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P3" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q3" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="R3" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="S3" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="T3" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="U3" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="V3" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="W3" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="X3" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Y3" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z3" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AA3" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AB3" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AC3" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AD3" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AE3" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF3" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG3" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3984,105 +3987,105 @@
         <v>6</v>
       </c>
       <c r="B4" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C4" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D4" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E4" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F4" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G4" s="270" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H4" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I4" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J4" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K4" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L4" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M4" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N4" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O4" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P4" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q4" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="R4" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="S4" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="T4" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="U4" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="V4" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="W4" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="X4" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Y4" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z4" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AA4" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AB4" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AC4" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AD4" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AE4" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF4" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG4" s="269" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="271" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B5" s="272" t="s">
         <v>8</v>
@@ -4094,91 +4097,91 @@
         <v>9</v>
       </c>
       <c r="E5" s="272" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F5" s="272" t="s">
+        <v>323</v>
+      </c>
+      <c r="G5" s="273" t="s">
+        <v>293</v>
+      </c>
+      <c r="H5" s="272" t="s">
+        <v>324</v>
+      </c>
+      <c r="I5" s="272" t="s">
+        <v>325</v>
+      </c>
+      <c r="J5" s="272" t="s">
+        <v>326</v>
+      </c>
+      <c r="K5" s="272" t="s">
         <v>322</v>
       </c>
-      <c r="G5" s="273" t="s">
-        <v>292</v>
-      </c>
-      <c r="H5" s="272" t="s">
-        <v>323</v>
-      </c>
-      <c r="I5" s="272" t="s">
-        <v>324</v>
-      </c>
-      <c r="J5" s="272" t="s">
-        <v>325</v>
-      </c>
-      <c r="K5" s="272" t="s">
-        <v>321</v>
-      </c>
       <c r="L5" s="272" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M5" s="272" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N5" s="272" t="s">
         <v>9</v>
       </c>
       <c r="O5" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P5" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q5" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="R5" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="S5" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="T5" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="U5" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="V5" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="W5" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="X5" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Y5" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z5" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AA5" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AB5" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AC5" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AD5" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AE5" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF5" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG5" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4186,201 +4189,201 @@
         <v>13</v>
       </c>
       <c r="B6" s="277" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C6" s="277" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D6" s="277" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E6" s="277" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F6" s="277" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G6" s="278" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H6" s="277" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I6" s="277" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J6" s="277" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K6" s="277" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L6" s="277" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M6" s="277" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N6" s="277" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O6" s="277" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P6" s="277" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q6" s="279" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="R6" s="279" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="S6" s="279" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="T6" s="279" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="U6" s="279" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="V6" s="279" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="W6" s="279" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="X6" s="279" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Y6" s="279" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z6" s="279" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AA6" s="279" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AB6" s="279" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AC6" s="279" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AD6" s="279" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AE6" s="279" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF6" s="279" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG6" s="279" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="280" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B7" s="281" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C7" s="281" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D7" s="281" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E7" s="281" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F7" s="281" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G7" s="282" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H7" s="281" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I7" s="281" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J7" s="281" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K7" s="281" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L7" s="281" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M7" s="281" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N7" s="275" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O7" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P7" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q7" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="R7" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="S7" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="T7" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="U7" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="V7" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="W7" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="X7" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Y7" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z7" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AA7" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AB7" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AC7" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AD7" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AE7" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF7" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG7" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4388,100 +4391,100 @@
         <v>23</v>
       </c>
       <c r="B8" s="284" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C8" s="284" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D8" s="284" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E8" s="284" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F8" s="284" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G8" s="285" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H8" s="284" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I8" s="284" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J8" s="284" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K8" s="284" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L8" s="284" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M8" s="284" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N8" s="284" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O8" s="284" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P8" s="284" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="284" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="R8" s="284" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="S8" s="284" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="T8" s="284" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="U8" s="284" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="V8" s="284" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="W8" s="284" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="X8" s="284" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Y8" s="284" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z8" s="284" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AA8" s="284" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AB8" s="284" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AC8" s="284" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AD8" s="284" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AE8" s="284" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF8" s="284" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG8" s="284" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4498,186 +4501,186 @@
         <v>27</v>
       </c>
       <c r="E9" s="287" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F9" s="287" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G9" s="288" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H9" s="287" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I9" s="287" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J9" s="287" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K9" s="287" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L9" s="287" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M9" s="287" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N9" s="289" t="s">
         <v>35</v>
       </c>
       <c r="O9" s="272" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P9" s="272" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q9" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="R9" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="S9" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="T9" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="U9" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="V9" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="W9" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="X9" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Y9" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z9" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AA9" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AB9" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AC9" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AD9" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AE9" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF9" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG9" s="275" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="280"/>
       <c r="B10" s="290" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C10" s="281" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D10" s="281" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E10" s="281" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F10" s="281" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G10" s="282" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H10" s="291"/>
       <c r="I10" s="281" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J10" s="281" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K10" s="281" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L10" s="281" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M10" s="281" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N10" s="272" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O10" s="272" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P10" s="272" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="280" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B11" s="290" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C11" s="281" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D11" s="281" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E11" s="281" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F11" s="281" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G11" s="282" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H11" s="291"/>
       <c r="I11" s="281" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J11" s="281" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K11" s="281" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L11" s="292"/>
       <c r="M11" s="292"/>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="280" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B12" s="293" t="n">
         <v>45042</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G12" s="263" t="n">
         <v>760</v>
@@ -4686,21 +4689,21 @@
         <v>1400000</v>
       </c>
       <c r="N12" s="50" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="280" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B13" s="293" t="n">
         <v>45042</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G13" s="263" t="n">
         <v>760</v>
@@ -4709,7 +4712,7 @@
         <v>1800000</v>
       </c>
       <c r="N13" s="50" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4748,7 +4751,7 @@
       <selection pane="bottomLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.0390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.0546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="50" width="32.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="50" width="24.8"/>
@@ -5226,13 +5229,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W46"/>
+  <dimension ref="A1:Y46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O20" activeCellId="0" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="54" width="14.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="54" width="13.86"/>
@@ -5241,19 +5244,19 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="54" width="14.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="54" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="54" width="14.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="54" width="17.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="54" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="54" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="54" width="10.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="54" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="54" width="10.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="55" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="55" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="55" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="54" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="54" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="54" width="10.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="3" width="6.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="22" style="54" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="54" width="13.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="55" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="55" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="55" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="54" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="54" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="54" width="10.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="3" width="6.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="24" style="54" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5273,13 +5276,15 @@
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
       <c r="Q1" s="56"/>
-      <c r="R1" s="4"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="4"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
     </row>
     <row r="2" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
@@ -5298,13 +5303,15 @@
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
       <c r="Q2" s="57"/>
-      <c r="R2" s="8"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="8"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
     </row>
     <row r="3" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
@@ -5347,31 +5354,37 @@
         <v>5</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="O3" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="58" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="Q3" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="R3" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="U3" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="V3" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="U3" s="14" t="s">
+      <c r="W3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
     </row>
     <row r="4" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
@@ -5390,14 +5403,16 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
       <c r="Q4" s="59"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="11"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="11"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
     </row>
     <row r="5" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
@@ -5442,29 +5457,35 @@
       <c r="N5" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="O5" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="P5" s="58" t="s">
-        <v>9</v>
+      <c r="O5" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="Q5" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="12" t="s">
+      <c r="R5" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="S5" s="21" t="s">
+      <c r="S5" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="T5" s="21" t="s">
+      <c r="T5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="20" t="s">
+      <c r="U5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
+      <c r="V5" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="W5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
     </row>
     <row r="6" s="24" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="s">
@@ -5483,13 +5504,15 @@
       <c r="L6" s="22"/>
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
       <c r="Q6" s="60"/>
-      <c r="R6" s="22"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="22"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
     </row>
     <row r="7" s="26" customFormat="true" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
@@ -5497,62 +5520,68 @@
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G7" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>86</v>
-      </c>
       <c r="I7" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="O7" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="P7" s="58" t="s">
+      <c r="O7" s="12" t="s">
         <v>94</v>
       </c>
+      <c r="P7" s="12" t="s">
+        <v>95</v>
+      </c>
       <c r="Q7" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="R7" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="S7" s="21" t="s">
+      <c r="R7" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="T7" s="21" t="s">
+      <c r="S7" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="U7" s="25"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
+      <c r="T7" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="U7" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="V7" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="W7" s="25"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
     </row>
     <row r="8" s="30" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="28" t="s">
@@ -5571,252 +5600,266 @@
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
       <c r="N8" s="28"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
       <c r="Q8" s="61"/>
-      <c r="R8" s="28"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="28"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="62" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B9" s="62" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="62" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D9" s="62" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E9" s="62" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F9" s="62" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G9" s="62" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H9" s="62" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I9" s="62" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J9" s="62" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K9" s="62" t="s">
         <v>56</v>
       </c>
       <c r="L9" s="62" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M9" s="62" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="N9" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="O9" s="63" t="s">
-        <v>106</v>
-      </c>
-      <c r="P9" s="63" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="O9" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="P9" s="62" t="s">
+        <v>110</v>
       </c>
       <c r="Q9" s="63" t="s">
-        <v>108</v>
-      </c>
-      <c r="R9" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="S9" s="62" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="R9" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="S9" s="63" t="s">
+        <v>113</v>
       </c>
       <c r="T9" s="62" t="s">
-        <v>111</v>
-      </c>
-      <c r="U9" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="U9" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="V9" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="W9" s="31" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="53" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D10" s="54" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F10" s="54" t="n">
         <v>0.01</v>
       </c>
       <c r="G10" s="54" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="H10" s="54" t="n">
         <v>0.01</v>
       </c>
       <c r="I10" s="54" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="J10" s="54" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="K10" s="54" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="L10" s="64" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="M10" s="54" t="n">
         <v>0</v>
       </c>
-      <c r="N10" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="O10" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="66" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="S10" s="66" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
+      <c r="N10" s="53" t="n">
+        <v>2</v>
+      </c>
+      <c r="O10" s="53" t="n">
+        <v>5</v>
+      </c>
+      <c r="P10" s="53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
       <c r="T10" s="66" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="U10" s="43"/>
+      <c r="U10" s="66" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="66" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="43"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="67"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
       <c r="Q11" s="68"/>
-      <c r="U11" s="43"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
+      <c r="W11" s="43"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
-      <c r="U12" s="43"/>
+      <c r="W12" s="43"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1"/>
-      <c r="U13" s="43"/>
+      <c r="W13" s="43"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1"/>
-      <c r="U14" s="49"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U15" s="49"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U16" s="49"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U17" s="49"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U18" s="49"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U19" s="49"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U20" s="49"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U21" s="49"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U22" s="49"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U23" s="49"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U24" s="49"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U25" s="49"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U26" s="49"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U27" s="49"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U28" s="49"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U29" s="49"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U30" s="49"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U31" s="49"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U32" s="49"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U33" s="49"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U34" s="49"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U35" s="49"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U36" s="49"/>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U37" s="49"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U38" s="49"/>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U39" s="49"/>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U40" s="49"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U41" s="49"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U42" s="49"/>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U43" s="49"/>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U44" s="49"/>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U45" s="49"/>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U46" s="49"/>
+      <c r="W14" s="49"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W15" s="49"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W16" s="49"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W17" s="49"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W18" s="49"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W19" s="49"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W20" s="49"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W21" s="49"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W22" s="49"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W23" s="49"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W24" s="49"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W25" s="49"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W26" s="49"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W27" s="49"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W28" s="49"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W29" s="49"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W30" s="49"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W31" s="49"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W32" s="49"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W33" s="49"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W34" s="49"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W35" s="49"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W36" s="49"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W37" s="49"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W38" s="49"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W39" s="49"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W40" s="49"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W41" s="49"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W42" s="49"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W43" s="49"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W44" s="49"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W45" s="49"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W46" s="49"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5840,7 +5883,7 @@
       <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.47265625" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="69" width="22.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="50" width="14.69"/>
@@ -5926,7 +5969,7 @@
         <v>5</v>
       </c>
       <c r="L3" s="37" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M3" s="16"/>
       <c r="P3" s="16"/>
@@ -5954,34 +5997,34 @@
     </row>
     <row r="5" s="21" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="70" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B5" s="71" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="73" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D5" s="71" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="73" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F5" s="71" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="73" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H5" s="71" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="73" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="J5" s="73" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K5" s="72" t="s">
         <v>22</v>
@@ -6012,40 +6055,40 @@
     </row>
     <row r="7" s="26" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="72" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B7" s="72" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D7" s="72" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E7" s="58" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F7" s="72" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G7" s="58" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H7" s="72" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I7" s="58" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="J7" s="58" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K7" s="72" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L7" s="72" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M7" s="12"/>
       <c r="N7" s="21"/>
@@ -6066,7 +6109,7 @@
       <c r="I8" s="28"/>
       <c r="J8" s="28"/>
       <c r="K8" s="74" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
@@ -6075,37 +6118,37 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="75" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C9" s="76" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D9" s="75" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E9" s="76" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F9" s="75" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G9" s="76" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H9" s="75" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I9" s="76" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J9" s="76" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K9" s="76" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L9" s="75" t="s">
         <v>35</v>
@@ -6265,7 +6308,7 @@
       <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.0390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.0546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="50" width="15.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="50" width="20.3"/>
@@ -6326,7 +6369,7 @@
     </row>
     <row r="3" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="70" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B3" s="71" t="s">
         <v>4</v>
@@ -6338,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="71" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F3" s="85" t="s">
         <v>4</v>
@@ -6350,7 +6393,7 @@
         <v>5</v>
       </c>
       <c r="I3" s="71" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="J3" s="71" t="s">
         <v>4</v>
@@ -6385,7 +6428,7 @@
     </row>
     <row r="5" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="70" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B5" s="71" t="s">
         <v>9</v>
@@ -6394,22 +6437,22 @@
         <v>9</v>
       </c>
       <c r="D5" s="71" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E5" s="87" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F5" s="73" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="88" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H5" s="87" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="I5" s="71" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="J5" s="71" t="s">
         <v>9</v>
@@ -6443,32 +6486,32 @@
     </row>
     <row r="7" s="26" customFormat="true" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F7" s="58" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G7" s="90" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
@@ -6500,31 +6543,31 @@
     </row>
     <row r="9" s="92" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="62" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C9" s="62" t="s">
         <v>54</v>
       </c>
       <c r="D9" s="62" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E9" s="62" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F9" s="62" t="s">
         <v>32</v>
       </c>
       <c r="G9" s="62" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H9" s="62" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I9" s="62" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="J9" s="62" t="s">
         <v>35</v>
@@ -6535,10 +6578,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="94" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C10" s="95" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D10" s="93" t="n">
         <v>0</v>
@@ -6563,10 +6606,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="94" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C11" s="95" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D11" s="93" t="n">
         <v>30</v>
@@ -6588,7 +6631,7 @@
         <v>300</v>
       </c>
       <c r="J11" s="96" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" s="92" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6596,10 +6639,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="94" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C12" s="97" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D12" s="93" t="n">
         <v>53</v>
@@ -6630,10 +6673,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="94" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C13" s="95" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D13" s="93" t="n">
         <v>74</v>
@@ -6664,10 +6707,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="94" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C14" s="97" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D14" s="93" t="n">
         <v>78</v>
@@ -6698,10 +6741,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="94" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C15" s="95" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D15" s="93" t="n">
         <v>82</v>
@@ -6732,10 +6775,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="94" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C16" s="95" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D16" s="93" t="n">
         <v>82</v>
@@ -7031,7 +7074,7 @@
     </row>
     <row r="3" s="129" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="119" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B3" s="120" t="s">
         <v>4</v>
@@ -7265,28 +7308,28 @@
     </row>
     <row r="5" s="137" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="119" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B5" s="120" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="120" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D5" s="120" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E5" s="119" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F5" s="133" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G5" s="133" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="122" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="I5" s="122" t="s">
         <v>9</v>
@@ -7295,7 +7338,7 @@
         <v>9</v>
       </c>
       <c r="K5" s="122" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L5" s="122" t="s">
         <v>9</v>
@@ -7304,7 +7347,7 @@
         <v>9</v>
       </c>
       <c r="N5" s="134" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="O5" s="134" t="s">
         <v>9</v>
@@ -7316,19 +7359,19 @@
         <v>9</v>
       </c>
       <c r="R5" s="119" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="S5" s="119" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="T5" s="120" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="U5" s="120" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="V5" s="122" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="W5" s="122" t="s">
         <v>9</v>
@@ -7340,19 +7383,19 @@
         <v>9</v>
       </c>
       <c r="Z5" s="122" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AA5" s="122" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AB5" s="122" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AC5" s="120" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="AD5" s="122" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AE5" s="122" t="s">
         <v>9</v>
@@ -7367,16 +7410,16 @@
         <v>9</v>
       </c>
       <c r="AI5" s="122" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AJ5" s="135" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AK5" s="135" t="s">
         <v>9</v>
       </c>
       <c r="AL5" s="135" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="AM5" s="135" t="s">
         <v>9</v>
@@ -7388,16 +7431,16 @@
         <v>9</v>
       </c>
       <c r="AP5" s="122" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AQ5" s="122" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AR5" s="122" t="s">
         <v>9</v>
       </c>
       <c r="AS5" s="122" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="AT5" s="122" t="s">
         <v>9</v>
@@ -7406,7 +7449,7 @@
         <v>9</v>
       </c>
       <c r="AV5" s="122" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AW5" s="122" t="s">
         <v>9</v>
@@ -7499,46 +7542,46 @@
     </row>
     <row r="7" s="144" customFormat="true" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="122" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B7" s="122"/>
       <c r="C7" s="122" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D7" s="122" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E7" s="122"/>
       <c r="F7" s="133" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G7" s="133" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H7" s="122" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="I7" s="122" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="J7" s="122" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K7" s="122" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L7" s="122" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M7" s="122" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="N7" s="134"/>
       <c r="O7" s="134" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="P7" s="134" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q7" s="133"/>
       <c r="R7" s="122" t="s">
@@ -7549,10 +7592,10 @@
       <c r="U7" s="122"/>
       <c r="V7" s="122"/>
       <c r="W7" s="122" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="X7" s="122" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Y7" s="122"/>
       <c r="Z7" s="122" t="s">
@@ -7563,51 +7606,51 @@
       <c r="AC7" s="122"/>
       <c r="AD7" s="122"/>
       <c r="AE7" s="122" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AF7" s="122" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AG7" s="135"/>
       <c r="AH7" s="122" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AI7" s="135" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AJ7" s="135" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AK7" s="135" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AL7" s="135"/>
       <c r="AM7" s="135" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="AN7" s="122"/>
       <c r="AO7" s="122" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AP7" s="135" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="AQ7" s="122" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="AR7" s="122" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AS7" s="122"/>
       <c r="AT7" s="122" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AU7" s="122"/>
       <c r="AV7" s="135" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AW7" s="135" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AX7" s="25"/>
       <c r="AY7" s="127"/>
@@ -7698,148 +7741,148 @@
         <v>52</v>
       </c>
       <c r="B9" s="151" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C9" s="151" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D9" s="151" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E9" s="151" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F9" s="152" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G9" s="151" t="s">
         <v>32</v>
       </c>
       <c r="H9" s="153" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="I9" s="153" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="J9" s="153" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K9" s="153" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L9" s="153" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M9" s="154" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="N9" s="155" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="O9" s="155" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P9" s="155" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q9" s="156" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="R9" s="157" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="S9" s="157" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="T9" s="157" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="U9" s="157" t="s">
+        <v>227</v>
+      </c>
+      <c r="V9" s="157" t="s">
+        <v>228</v>
+      </c>
+      <c r="W9" s="157" t="s">
+        <v>229</v>
+      </c>
+      <c r="X9" s="157" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y9" s="158" t="s">
         <v>223</v>
       </c>
-      <c r="V9" s="157" t="s">
+      <c r="Z9" s="158" t="s">
         <v>224</v>
       </c>
-      <c r="W9" s="157" t="s">
+      <c r="AA9" s="158" t="s">
         <v>225</v>
       </c>
-      <c r="X9" s="157" t="s">
+      <c r="AB9" s="158" t="s">
         <v>226</v>
       </c>
-      <c r="Y9" s="158" t="s">
-        <v>219</v>
-      </c>
-      <c r="Z9" s="158" t="s">
-        <v>220</v>
-      </c>
-      <c r="AA9" s="158" t="s">
-        <v>221</v>
-      </c>
-      <c r="AB9" s="158" t="s">
-        <v>222</v>
-      </c>
       <c r="AC9" s="158" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AD9" s="158" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AE9" s="158" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AF9" s="158" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AG9" s="159" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="AH9" s="160" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AI9" s="160" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="AJ9" s="159" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AK9" s="159" t="s">
+        <v>235</v>
+      </c>
+      <c r="AL9" s="159" t="s">
+        <v>236</v>
+      </c>
+      <c r="AM9" s="159" t="s">
+        <v>237</v>
+      </c>
+      <c r="AN9" s="161" t="s">
         <v>231</v>
       </c>
-      <c r="AL9" s="159" t="s">
+      <c r="AO9" s="161" t="s">
         <v>232</v>
       </c>
-      <c r="AM9" s="159" t="s">
+      <c r="AP9" s="161" t="s">
         <v>233</v>
       </c>
-      <c r="AN9" s="161" t="s">
-        <v>227</v>
-      </c>
-      <c r="AO9" s="161" t="s">
-        <v>228</v>
-      </c>
-      <c r="AP9" s="161" t="s">
-        <v>229</v>
-      </c>
       <c r="AQ9" s="161" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AR9" s="161" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AS9" s="161" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="AT9" s="161" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="AU9" s="162" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AV9" s="162" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AW9" s="162" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AX9" s="31" t="s">
         <v>35</v>
@@ -7861,7 +7904,7 @@
     </row>
     <row r="10" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="163" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B10" s="163" t="n">
         <v>1</v>
@@ -7910,7 +7953,7 @@
         <v>100</v>
       </c>
       <c r="Q10" s="170" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="R10" s="164" t="n">
         <v>30</v>
@@ -7962,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AG10" s="172" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AH10" s="163" t="n">
         <v>1</v>
@@ -7985,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="AN10" s="172" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="AO10" s="163" t="n">
         <v>0.0005</v>
@@ -8017,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="AX10" s="43" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="BD10" s="49"/>
       <c r="BE10" s="49"/>
@@ -8031,7 +8074,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="163" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B11" s="163" t="n">
         <v>2</v>
@@ -8080,7 +8123,7 @@
         <v>100</v>
       </c>
       <c r="Q11" s="170" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="R11" s="164" t="n">
         <v>30</v>
@@ -8132,7 +8175,7 @@
         <v>0</v>
       </c>
       <c r="AG11" s="172" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AH11" s="163" t="n">
         <v>1</v>
@@ -8155,7 +8198,7 @@
         <v>0</v>
       </c>
       <c r="AN11" s="172" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="AO11" s="163" t="n">
         <v>0.0005</v>
@@ -8187,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="AX11" s="43" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="BD11" s="49"/>
       <c r="BE11" s="49"/>
@@ -8201,7 +8244,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="163" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B12" s="163" t="n">
         <v>3</v>
@@ -8250,7 +8293,7 @@
         <v>100</v>
       </c>
       <c r="Q12" s="170" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="R12" s="164" t="n">
         <v>30</v>
@@ -8302,7 +8345,7 @@
         <v>0</v>
       </c>
       <c r="AG12" s="172" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AH12" s="163" t="n">
         <v>1</v>
@@ -8325,7 +8368,7 @@
         <v>0</v>
       </c>
       <c r="AN12" s="172" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="AO12" s="163" t="n">
         <v>0.0005</v>
@@ -8357,7 +8400,7 @@
         <v>0</v>
       </c>
       <c r="AX12" s="43" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="BD12" s="49"/>
       <c r="BE12" s="49"/>
@@ -8371,7 +8414,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="163" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B13" s="163" t="n">
         <v>4</v>
@@ -8420,7 +8463,7 @@
         <v>100</v>
       </c>
       <c r="Q13" s="170" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="R13" s="164" t="n">
         <v>3</v>
@@ -8472,7 +8515,7 @@
         <v>0</v>
       </c>
       <c r="AG13" s="172" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AH13" s="163" t="n">
         <v>1</v>
@@ -8495,7 +8538,7 @@
         <v>0</v>
       </c>
       <c r="AN13" s="172" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="AO13" s="163" t="n">
         <v>0.0005</v>
@@ -8527,7 +8570,7 @@
         <v>0</v>
       </c>
       <c r="AX13" s="43" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="BD13" s="49"/>
       <c r="BE13" s="49"/>
@@ -8541,7 +8584,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="163" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B14" s="163" t="n">
         <v>5</v>
@@ -8590,7 +8633,7 @@
         <v>100</v>
       </c>
       <c r="Q14" s="170" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="R14" s="164" t="n">
         <v>3</v>
@@ -8642,7 +8685,7 @@
         <v>0</v>
       </c>
       <c r="AG14" s="172" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AH14" s="163" t="n">
         <v>1</v>
@@ -8665,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="AN14" s="172" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="AO14" s="163" t="n">
         <v>0.0005</v>
@@ -8697,7 +8740,7 @@
         <v>0</v>
       </c>
       <c r="AX14" s="43" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="BD14" s="49"/>
       <c r="BE14" s="49"/>
@@ -9310,10 +9353,10 @@
         <v>9</v>
       </c>
       <c r="F5" s="182" t="s">
-        <v>250</v>
+        <v>84</v>
       </c>
       <c r="G5" s="182" t="s">
-        <v>250</v>
+        <v>84</v>
       </c>
       <c r="H5" s="182" t="s">
         <v>9</v>
@@ -9349,28 +9392,28 @@
     </row>
     <row r="7" s="189" customFormat="true" ht="34.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="183" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B7" s="183" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C7" s="188" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D7" s="183" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E7" s="183" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F7" s="183" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G7" s="183" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H7" s="183" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="I7" s="183"/>
       <c r="J7" s="183"/>
@@ -9416,3073 +9459,3073 @@
     </row>
     <row r="9" s="193" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="190" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B9" s="191" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D9" s="191" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E9" s="191" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F9" s="191" t="s">
-        <v>263</v>
+        <v>109</v>
       </c>
       <c r="G9" s="191" t="s">
-        <v>264</v>
+        <v>110</v>
       </c>
       <c r="H9" s="191" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="R9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="S9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="T9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="U9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="V9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="W9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="X9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Y9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AA9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AB9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AC9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AD9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AE9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AH9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AI9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AJ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AK9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AL9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AP9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AQ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AR9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AS9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AT9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AU9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AV9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AW9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AX9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AY9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AZ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BA9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BB9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BC9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BD9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BE9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BF9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BG9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BH9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BI9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BJ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BK9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BL9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BM9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BN9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BO9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BP9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BQ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BR9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BS9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BT9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BU9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BV9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BW9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BX9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BY9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BZ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="CA9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="CB9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="CC9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="CD9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="CE9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="CF9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="CG9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="CH9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="CI9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="CJ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="CK9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="CL9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="CM9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="CN9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="CO9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="CP9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="CQ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="CR9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="CS9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="CT9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="CU9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="CV9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="CW9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="CX9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="CY9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="CZ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="DA9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="DB9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="DC9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="DD9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="DE9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="DF9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="DG9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="DH9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="DI9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="DJ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="DK9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="DL9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="DM9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="DN9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="DO9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="DP9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="DQ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="DR9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="DS9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="DT9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="DU9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="DV9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="DW9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="DX9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="DY9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="DZ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="EA9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="EB9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="EC9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ED9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="EE9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="EF9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="EG9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="EH9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="EI9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="EJ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="EK9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="EL9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="EM9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="EN9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="EO9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="EP9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="EQ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ER9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ES9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ET9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="EU9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="EV9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="EW9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="EX9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="EY9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="EZ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="FA9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="FB9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="FC9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="FD9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="FE9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="FF9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="FG9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="FH9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="FI9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="FJ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="FK9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="FL9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="FM9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="FN9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="FO9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="FP9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="FQ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="FR9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="FS9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="FT9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="FU9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="FV9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="FW9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="FX9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="FY9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="FZ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="GA9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="GB9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="GC9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="GD9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="GE9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="GF9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="GG9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="GH9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="GI9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="GJ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="GK9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="GL9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="GM9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="GN9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="GO9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="GP9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="GQ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="GR9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="GS9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="GT9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="GU9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="GV9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="GW9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="GX9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="GY9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="GZ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="HA9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="HB9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="HC9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="HD9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="HE9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="HF9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="HG9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="HH9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="HI9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="HJ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="HK9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="HL9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="HM9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="HN9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="HO9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="HP9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="HQ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="HR9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="HS9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="HT9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="HU9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="HV9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="HW9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="HX9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="HY9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="HZ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="IA9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="IB9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="IC9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ID9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="IE9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="IF9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="IG9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="IH9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="II9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="IJ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="IK9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="IL9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="IM9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="IN9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="IO9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="IP9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="IQ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="IR9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="IS9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="IT9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="IU9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="IV9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="IW9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="IX9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="IY9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="IZ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="JA9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="JB9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="JC9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="JD9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="JE9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="JF9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="JG9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="JH9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="JI9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="JJ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="JK9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="JL9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="JM9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="JN9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="JO9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="JP9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="JQ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="JR9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="JS9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="JT9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="JU9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="JV9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="JW9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="JX9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="JY9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="JZ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="KA9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="KB9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="KC9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="KD9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="KE9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="KF9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="KG9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="KH9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="KI9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="KJ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="KK9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="KL9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="KM9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="KN9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="KO9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="KP9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="KQ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="KR9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="KS9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="KT9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="KU9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="KV9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="KW9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="KX9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="KY9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="KZ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="LA9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="LB9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="LC9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="LD9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="LE9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="LF9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="LG9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="LH9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="LI9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="LJ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="LK9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="LL9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="LM9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="LN9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="LO9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="LP9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="LQ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="LR9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="LS9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="LT9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="LU9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="LV9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="LW9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="LX9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="LY9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="LZ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="MA9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="MB9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="MC9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="MD9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ME9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="MF9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="MG9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="MH9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="MI9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="MJ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="MK9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ML9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="MM9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="MN9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="MO9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="MP9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="MQ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="MR9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="MS9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="MT9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="MU9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="MV9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="MW9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="MX9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="MY9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="MZ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="NA9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="NB9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="NC9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ND9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="NE9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="NF9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="NG9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="NH9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="NI9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="NJ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="NK9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="NL9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="NM9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="NN9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="NO9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="NP9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="NQ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="NR9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="NS9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="NT9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="NU9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="NV9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="NW9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="NX9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="NY9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="NZ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="OA9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="OB9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="OC9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="OD9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="OE9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="OF9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="OG9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="OH9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="OI9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="OJ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="OK9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="OL9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="OM9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ON9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="OO9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="OP9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="OQ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="OR9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="OS9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="OT9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="OU9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="OV9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="OW9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="OX9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="OY9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="OZ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="PA9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="PB9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="PC9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="PD9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="PE9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="PF9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="PG9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="PH9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="PI9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="PJ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="PK9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="PL9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="PM9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="PN9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="PO9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="PP9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="PQ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="PR9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="PS9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="PT9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="PU9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="PV9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="PW9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="PX9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="PY9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="PZ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="QA9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="QB9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="QC9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="QD9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="QE9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="QF9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="QG9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="QH9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="QI9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="QJ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="QK9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="QL9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="QM9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="QN9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="QO9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="QP9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="QQ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="QR9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="QS9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="QT9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="QU9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="QV9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="QW9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="QX9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="QY9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="QZ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="RA9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="RB9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="RC9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="RD9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="RE9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="RF9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="RG9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="RH9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="RI9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="RJ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="RK9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="RL9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="RM9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="RN9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="RO9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="RP9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="RQ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="RR9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="RS9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="RT9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="RU9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="RV9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="RW9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="RX9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="RY9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="RZ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="SA9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="SB9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="SC9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="SD9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="SE9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="SF9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="SG9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="SH9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="SI9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="SJ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="SK9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="SL9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="SM9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="SN9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="SO9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="SP9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="SQ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="SR9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="SS9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ST9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="SU9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="SV9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="SW9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="SX9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="SY9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="SZ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="TA9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="TB9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="TC9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="TD9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="TE9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="TF9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="TG9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="TH9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="TI9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="TJ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="TK9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="TL9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="TM9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="TN9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="TO9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="TP9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="TQ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="TR9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="TS9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="TT9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="TU9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="TV9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="TW9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="TX9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="TY9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="TZ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="UA9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="UB9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="UC9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="UD9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="UE9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="UF9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="UG9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="UH9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="UI9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="UJ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="UK9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="UL9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="UM9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="UN9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="UO9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="UP9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="UQ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="UR9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="US9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="UT9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="UU9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="UV9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="UW9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="UX9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="UY9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="UZ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="VA9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="VB9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="VC9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="VD9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="VE9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="VF9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="VG9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="VH9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="VI9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="VJ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="VK9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="VL9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="VM9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="VN9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="VO9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="VP9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="VQ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="VR9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="VS9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="VT9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="VU9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="VV9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="VW9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="VX9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="VY9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="VZ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="WA9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="WB9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="WC9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="WD9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="WE9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="WF9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="WG9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="WH9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="WI9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="WJ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="WK9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="WL9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="WM9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="WN9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="WO9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="WP9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="WQ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="WR9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="WS9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="WT9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="WU9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="WV9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="WW9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="WX9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="WY9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="WZ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="XA9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="XB9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="XC9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="XD9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="XE9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="XF9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="XG9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="XH9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="XI9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="XJ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="XK9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="XL9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="XM9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="XN9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="XO9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="XP9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="XQ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="XR9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="XS9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="XT9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="XU9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="XV9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="XW9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="XX9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="XY9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="XZ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="YA9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="YB9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="YC9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="YD9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="YE9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="YF9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="YG9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="YH9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="YI9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="YJ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="YK9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="YL9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="YM9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="YN9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="YO9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="YP9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="YQ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="YR9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="YS9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="YT9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="YU9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="YV9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="YW9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="YX9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="YY9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="YZ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ZA9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ZB9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ZC9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ZD9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ZE9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ZF9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ZG9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ZH9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ZI9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ZJ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ZK9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ZL9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ZM9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ZN9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ZO9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ZP9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ZQ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ZR9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ZS9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ZT9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ZU9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ZV9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ZW9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ZX9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ZY9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ZZ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AAA9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AAB9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AAC9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AAD9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AAE9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AAF9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AAG9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AAH9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AAI9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AAJ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AAK9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AAL9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AAM9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AAN9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AAO9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AAP9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AAQ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AAR9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AAS9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AAT9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AAU9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AAV9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AAW9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AAX9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AAY9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AAZ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ABA9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ABB9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ABC9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ABD9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ABE9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ABF9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ABG9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ABH9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ABI9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ABJ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ABK9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ABL9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ABM9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ABN9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ABO9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ABP9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ABQ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ABR9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ABS9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ABT9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ABU9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ABV9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ABW9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ABX9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ABY9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ABZ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ACA9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ACB9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ACC9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ACD9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ACE9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ACF9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ACG9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ACH9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ACI9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ACJ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ACK9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ACL9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ACM9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ACN9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ACO9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ACP9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ACQ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ACR9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ACS9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ACT9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ACU9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ACV9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ACW9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ACX9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ACY9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ACZ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ADA9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ADB9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ADC9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ADD9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ADE9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ADF9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ADG9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ADH9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ADI9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ADJ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ADK9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ADL9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ADM9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ADN9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ADO9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ADP9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ADQ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ADR9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ADS9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ADT9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ADU9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ADV9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ADW9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ADX9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ADY9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ADZ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AEA9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AEB9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AEC9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AED9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AEE9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AEF9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AEG9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AEH9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AEI9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AEJ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AEK9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AEL9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AEM9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AEN9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AEO9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AEP9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AEQ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AER9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AES9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AET9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AEU9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AEV9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AEW9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AEX9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AEY9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AEZ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AFA9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AFB9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AFC9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AFD9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AFE9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AFF9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AFG9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AFH9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AFI9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AFJ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AFK9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AFL9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AFM9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AFN9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AFO9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AFP9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AFQ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AFR9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AFS9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AFT9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AFU9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AFV9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AFW9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AFX9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AFY9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AFZ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AGA9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AGB9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AGC9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AGD9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AGE9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AGF9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AGG9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AGH9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AGI9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AGJ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AGK9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AGL9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AGM9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AGN9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AGO9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AGP9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AGQ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AGR9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AGS9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AGT9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AGU9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AGV9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AGW9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AGX9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AGY9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AGZ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AHA9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AHB9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AHC9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AHD9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AHE9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AHF9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AHG9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AHH9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AHI9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AHJ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AHK9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AHL9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AHM9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AHN9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AHO9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AHP9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AHQ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AHR9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AHS9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AHT9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AHU9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AHV9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AHW9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AHX9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AHY9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AHZ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AIA9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AIB9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AIC9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AID9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AIE9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AIF9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AIG9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AIH9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AII9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AIJ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AIK9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AIL9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AIM9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AIN9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AIO9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AIP9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AIQ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AIR9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AIS9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AIT9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AIU9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AIV9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AIW9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AIX9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AIY9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AIZ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AJA9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AJB9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AJC9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AJD9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AJE9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AJF9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AJG9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AJH9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AJI9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AJJ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AJK9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AJL9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AJM9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AJN9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AJO9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AJP9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AJQ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AJR9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AJS9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AJT9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AJU9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AJV9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AJW9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AJX9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AJY9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AJZ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AKA9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AKB9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AKC9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AKD9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AKE9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AKF9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AKG9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AKH9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AKI9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AKJ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AKK9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AKL9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AKM9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AKN9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AKO9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AKP9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AKQ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AKR9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AKS9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AKT9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AKU9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AKV9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AKW9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AKX9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AKY9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AKZ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ALA9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ALB9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ALC9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ALD9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ALE9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ALF9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ALG9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ALH9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ALI9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ALJ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ALK9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ALL9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ALM9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ALN9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ALO9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ALP9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ALQ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ALR9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ALS9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ALT9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ALU9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ALV9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ALW9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ALX9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ALY9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="ALZ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AMA9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AMB9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AMC9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AMD9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AME9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AMF9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AMG9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AMH9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AMI9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AMJ9" s="194" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12490,14 +12533,14 @@
         <v>36</v>
       </c>
       <c r="B10" s="196" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C10" s="197" t="n">
         <v>45020</v>
       </c>
       <c r="D10" s="198"/>
       <c r="E10" s="198" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F10" s="196" t="n">
         <v>10</v>
@@ -12506,7 +12549,7 @@
         <v>5</v>
       </c>
       <c r="H10" s="196" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12514,16 +12557,16 @@
         <v>36</v>
       </c>
       <c r="B11" s="196" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C11" s="199" t="n">
         <v>45020</v>
       </c>
       <c r="D11" s="196" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E11" s="196" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F11" s="196" t="n">
         <v>10</v>
@@ -12799,7 +12842,7 @@
     </row>
     <row r="5" s="18" customFormat="true" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="201" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B5" s="201" t="s">
         <v>8</v>
@@ -12814,16 +12857,16 @@
         <v>9</v>
       </c>
       <c r="F5" s="201" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G5" s="201" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H5" s="201" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I5" s="201" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J5" s="201" t="s">
         <v>9</v>
@@ -12883,35 +12926,35 @@
     </row>
     <row r="7" s="24" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C7" s="40"/>
       <c r="D7" s="16" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
@@ -12980,19 +13023,19 @@
         <v>55</v>
       </c>
       <c r="F9" s="202" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G9" s="202" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H9" s="202" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I9" s="202" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J9" s="202" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K9" s="204" t="s">
         <v>35</v>
@@ -13000,19 +13043,19 @@
     </row>
     <row r="10" customFormat="false" ht="101.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="205" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B10" s="206" t="n">
         <v>45033</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D10" s="207" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E10" s="207" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F10" s="208" t="n">
         <v>38.9</v>
@@ -13024,10 +13067,10 @@
         <v>0.473</v>
       </c>
       <c r="J10" s="210" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K10" s="207" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13195,7 +13238,7 @@
     </row>
     <row r="3" s="223" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="224" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B3" s="225" t="s">
         <v>3</v>
@@ -13287,7 +13330,7 @@
     </row>
     <row r="5" s="232" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="224" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B5" s="225" t="s">
         <v>8</v>
@@ -13296,20 +13339,20 @@
       <c r="D5" s="226"/>
       <c r="E5" s="226"/>
       <c r="F5" s="226" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G5" s="226"/>
       <c r="H5" s="226" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I5" s="227" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J5" s="227" t="s">
-        <v>250</v>
+        <v>84</v>
       </c>
       <c r="K5" s="227" t="s">
-        <v>250</v>
+        <v>84</v>
       </c>
       <c r="L5" s="226"/>
       <c r="M5" s="226"/>
@@ -13369,36 +13412,36 @@
     </row>
     <row r="7" s="223" customFormat="true" ht="45.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="234" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B7" s="235" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C7" s="234"/>
       <c r="D7" s="234"/>
       <c r="E7" s="234" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F7" s="234" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G7" s="234" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H7" s="234" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I7" s="236" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J7" s="236" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K7" s="236" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L7" s="237" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M7" s="229"/>
       <c r="N7" s="229"/>
@@ -13469,25 +13512,25 @@
         <v>27</v>
       </c>
       <c r="E9" s="239" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F9" s="239" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G9" s="239" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H9" s="239" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I9" s="239" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J9" s="239" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K9" s="239" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L9" s="240" t="s">
         <v>35</v>
@@ -13495,55 +13538,55 @@
       <c r="M9" s="241"/>
       <c r="N9" s="242"/>
       <c r="O9" s="220" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P9" s="220" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q9" s="220" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="R9" s="220" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="S9" s="220" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="T9" s="220" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="U9" s="220" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="V9" s="220" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="W9" s="220" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="X9" s="220" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Y9" s="220" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z9" s="220" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AA9" s="220" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AB9" s="220" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AC9" s="220" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AD9" s="220" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AE9" s="220" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13554,10 +13597,10 @@
         <v>45012</v>
       </c>
       <c r="C10" s="245" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D10" s="245" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E10" s="246"/>
       <c r="F10" s="236"/>
@@ -13572,7 +13615,7 @@
       <c r="J10" s="249"/>
       <c r="K10" s="249"/>
       <c r="L10" s="242" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N10" s="242"/>
     </row>
@@ -13584,10 +13627,10 @@
         <v>45012</v>
       </c>
       <c r="C11" s="245" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D11" s="245" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E11" s="246"/>
       <c r="F11" s="236"/>
@@ -13602,7 +13645,7 @@
       <c r="J11" s="249"/>
       <c r="K11" s="249"/>
       <c r="L11" s="242" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N11" s="242"/>
     </row>
@@ -13614,10 +13657,10 @@
         <v>45012</v>
       </c>
       <c r="C12" s="245" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D12" s="245" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E12" s="246"/>
       <c r="F12" s="236"/>
@@ -13632,7 +13675,7 @@
       <c r="J12" s="249"/>
       <c r="K12" s="249"/>
       <c r="L12" s="242" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N12" s="242"/>
     </row>
@@ -13644,10 +13687,10 @@
         <v>45012</v>
       </c>
       <c r="C13" s="245" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D13" s="245" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E13" s="246"/>
       <c r="F13" s="236"/>
@@ -13662,7 +13705,7 @@
       <c r="J13" s="249"/>
       <c r="K13" s="249"/>
       <c r="L13" s="242" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N13" s="242"/>
     </row>
